--- a/AD-EYE/TA/Configurations/AutowareConfigTemplate.xlsx
+++ b/AD-EYE/TA/Configurations/AutowareConfigTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adeye\AD-EYE_Core\AD-EYE\TA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adeye\AD-EYE_Core\AD-EYE\TA\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6705E02C-6374-4361-82AD-E2B1F98DDAD7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949D2C39-2E53-40FC-8E21-1CC12419FF05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10470" yWindow="2055" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1138,21 +1138,21 @@
   </sheetPr>
   <dimension ref="A1:G239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35:G48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="1" customWidth="1"/>
-    <col min="7" max="7" width="134.7109375" customWidth="1"/>
+    <col min="7" max="7" width="134.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>215</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1482,10 +1482,10 @@
         <v>3</v>
       </c>
       <c r="G15" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>224</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>224</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>224</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>224</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>224</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>224</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>224</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>224</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>224</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>23</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>23</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>23</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>23</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>23</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>23</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>23</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>23</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>-0.37059999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>23</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>0.48299999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>23</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>-0.62939999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>23</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>0.48299999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>23</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>23</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>23</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>23</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>23</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>23</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>23</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>23</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>23</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>23</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>23</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>23</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>23</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>23</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>23</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>23</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>23</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>23</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>23</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>23</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>23</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>23</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>23</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>23</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>23</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>23</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>23</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>23</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>23</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>23</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>23</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>23</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>23</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>23</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>23</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>23</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>23</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>23</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>23</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>23</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>23</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>23</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>23</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>23</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>23</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>23</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>23</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>23</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>23</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>23</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>23</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>23</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>23</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>23</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>23</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>23</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>23</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>23</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>23</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>23</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>23</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>23</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>23</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>23</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>23</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>23</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>23</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>23</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>23</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>23</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>23</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>23</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>23</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>23</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>23</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>23</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>23</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>23</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>23</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>23</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>23</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>23</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>23</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>23</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>23</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>23</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>23</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>23</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>23</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>23</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>23</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>23</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>23</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>23</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>23</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>23</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>23</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>23</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>23</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>23</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>23</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>23</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>23</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>23</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>23</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>23</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>23</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>23</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>23</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>23</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>23</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>23</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>23</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>23</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>23</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>23</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>23</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>23</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>23</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>23</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>23</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>23</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>23</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>23</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>23</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>23</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>23</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>23</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>23</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>23</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>23</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>23</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>23</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>23</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>213</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>213</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>213</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>213</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>213</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>213</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>213</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>213</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>213</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>214</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>214</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>214</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>214</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>214</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>214</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>214</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>214</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>214</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>214</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>214</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>214</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>214</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>214</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>214</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>214</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>214</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>214</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>214</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>214</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>214</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>214</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>214</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>214</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>214</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>214</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>214</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>214</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>214</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>214</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>214</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>214</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>214</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>214</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>214</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>214</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>214</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>214</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>214</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>214</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>214</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>214</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>214</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>214</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>226</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>228</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>228</v>
       </c>

--- a/AD-EYE/TA/Configurations/AutowareConfigTemplate.xlsx
+++ b/AD-EYE/TA/Configurations/AutowareConfigTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adeye\AD-EYE_Core\AD-EYE\TA\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949D2C39-2E53-40FC-8E21-1CC12419FF05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAE553C-EA81-4856-ACC7-2682A7E14B8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1138,8 +1138,8 @@
   </sheetPr>
   <dimension ref="A1:G239"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="C179" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G195" sqref="G195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="F143" s="5"/>
       <c r="G143" s="5">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -4296,7 +4296,7 @@
         <v>10</v>
       </c>
       <c r="G149" s="5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -5207,7 +5207,7 @@
         <v>20</v>
       </c>
       <c r="G194" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
@@ -5230,7 +5230,7 @@
         <v>50</v>
       </c>
       <c r="G195" s="5">
-        <v>11.1</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
@@ -5322,7 +5322,7 @@
         <v>100</v>
       </c>
       <c r="G199" s="5">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
@@ -5601,7 +5601,7 @@
         <v>10</v>
       </c>
       <c r="G212" s="5">
-        <v>1.85</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
@@ -5624,7 +5624,7 @@
         <v>10</v>
       </c>
       <c r="G213" s="5">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
@@ -5647,7 +5647,7 @@
         <v>10</v>
       </c>
       <c r="G214" s="5">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">

--- a/AD-EYE/TA/Configurations/AutowareConfigTemplate.xlsx
+++ b/AD-EYE/TA/Configurations/AutowareConfigTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adeye\AD-EYE_Core\AD-EYE\TA\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAE553C-EA81-4856-ACC7-2682A7E14B8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C9C839-950E-4556-9E8A-F143BEB6E9E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15996" yWindow="1272" windowWidth="14724" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1138,8 +1138,8 @@
   </sheetPr>
   <dimension ref="A1:G239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C179" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G195" sqref="G195"/>
+    <sheetView tabSelected="1" topLeftCell="G134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="F143" s="5"/>
       <c r="G143" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">

--- a/AD-EYE/TA/Configurations/AutowareConfigTemplate.xlsx
+++ b/AD-EYE/TA/Configurations/AutowareConfigTemplate.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adeye\AD-EYE_Core\AD-EYE\TA\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C9C839-950E-4556-9E8A-F143BEB6E9E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE4764D-408F-48AB-BF37-EB5552932153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15996" yWindow="1272" windowWidth="14724" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6744" yWindow="1596" windowWidth="14724" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="265">
   <si>
     <t>tf_x</t>
   </si>
@@ -729,9 +730,6 @@
     <t>BaseLink_to_velodyne</t>
   </si>
   <si>
-    <t>BaseLink_to_camera</t>
-  </si>
-  <si>
     <t>BaseLink_to_traffic_light_camera</t>
   </si>
   <si>
@@ -745,6 +743,84 @@
   </si>
   <si>
     <t>$(env HOME)/AD-EYE_Core/AD-EYE/Data/ssdcaffe_models/AD-EYE_SSD_Model/SSD_512x512/VGG_Dataset_SSD_512x512_iter_60000.caffemodel</t>
+  </si>
+  <si>
+    <t>BaseLink_to_radar</t>
+  </si>
+  <si>
+    <t>BaseLink_to_camera1</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>BaseLink_to_camera2</t>
+  </si>
+  <si>
+    <t>imm_ukf_pda_track</t>
+  </si>
+  <si>
+    <t>gating_thres</t>
+  </si>
+  <si>
+    <t>gate_probability</t>
+  </si>
+  <si>
+    <t>/detection/lidar_detector/objects</t>
+  </si>
+  <si>
+    <t>use_sukf</t>
+  </si>
+  <si>
+    <t>/world</t>
+  </si>
+  <si>
+    <t>/map</t>
+  </si>
+  <si>
+    <t>/detection/object_tracker/</t>
+  </si>
+  <si>
+    <t>detection_probability</t>
+  </si>
+  <si>
+    <t>life_time_thres</t>
+  </si>
+  <si>
+    <t>static_velocity_thres</t>
+  </si>
+  <si>
+    <t>static_num_history_thres</t>
+  </si>
+  <si>
+    <t>prevent_explosion_thres</t>
+  </si>
+  <si>
+    <t>lane_direction_chi_thres</t>
+  </si>
+  <si>
+    <t>nearest_lane_distance_thres</t>
+  </si>
+  <si>
+    <t>tracker_input_topic</t>
+  </si>
+  <si>
+    <t>tracker_output_topic</t>
+  </si>
+  <si>
+    <t>use_vectormap</t>
+  </si>
+  <si>
+    <t>tracking_frame</t>
+  </si>
+  <si>
+    <t>lane_frame</t>
+  </si>
+  <si>
+    <t>merge_distance_threshold</t>
+  </si>
+  <si>
+    <t>namespace</t>
   </si>
 </sst>
 </file>
@@ -792,7 +868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -819,6 +895,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1136,10 +1218,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G239"/>
+  <dimension ref="A1:G270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G149" sqref="G149"/>
+    <sheetView tabSelected="1" topLeftCell="B165" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1883,507 +1965,531 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="5">
+      <c r="A35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="12">
         <v>-10</v>
       </c>
-      <c r="F35" s="5">
-        <v>10</v>
-      </c>
-      <c r="G35" s="5">
+      <c r="F35" s="12">
+        <v>10</v>
+      </c>
+      <c r="G35" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="A36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="5">
+      <c r="D36" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="12">
         <v>-10</v>
       </c>
-      <c r="F36" s="5">
-        <v>10</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="F36" s="12">
+        <v>10</v>
+      </c>
+      <c r="G36" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="A37" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="5">
+      <c r="D37" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="12">
         <v>-10</v>
       </c>
-      <c r="F37" s="5">
-        <v>10</v>
-      </c>
-      <c r="G37" s="5">
+      <c r="F37" s="12">
+        <v>10</v>
+      </c>
+      <c r="G37" s="12">
         <v>1.32</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="A38" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="5">
+      <c r="D38" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="12">
         <v>-10</v>
       </c>
-      <c r="F38" s="5">
-        <v>10</v>
-      </c>
-      <c r="G38" s="5">
+      <c r="F38" s="12">
+        <v>10</v>
+      </c>
+      <c r="G38" s="12">
         <v>-0.5</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="A39" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="5">
+      <c r="D39" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="12">
         <v>-10</v>
       </c>
-      <c r="F39" s="5">
-        <v>10</v>
-      </c>
-      <c r="G39" s="5">
+      <c r="F39" s="12">
+        <v>10</v>
+      </c>
+      <c r="G39" s="12">
         <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="A40" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="5">
+      <c r="D40" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="12">
         <v>-10</v>
       </c>
-      <c r="F40" s="5">
-        <v>10</v>
-      </c>
-      <c r="G40" s="5">
+      <c r="F40" s="12">
+        <v>10</v>
+      </c>
+      <c r="G40" s="12">
         <v>-0.5</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="A41" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="5">
+      <c r="D41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="12">
         <v>-10</v>
       </c>
-      <c r="F41" s="5">
-        <v>10</v>
-      </c>
-      <c r="G41" s="5">
+      <c r="F41" s="12">
+        <v>10</v>
+      </c>
+      <c r="G41" s="12">
         <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="5">
+      <c r="A42" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="12">
         <v>-10</v>
       </c>
-      <c r="F42" s="5">
-        <v>10</v>
-      </c>
-      <c r="G42" s="5">
-        <v>1.1000000000000001</v>
+      <c r="F42" s="12">
+        <v>10</v>
+      </c>
+      <c r="G42" s="12">
+        <v>-0.95</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C43" s="4" t="s">
+      <c r="A43" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="5">
+      <c r="D43" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="12">
         <v>-10</v>
       </c>
-      <c r="F43" s="5">
-        <v>10</v>
-      </c>
-      <c r="G43" s="5">
-        <v>-0.7</v>
+      <c r="F43" s="12">
+        <v>10</v>
+      </c>
+      <c r="G43" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="A44" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="5">
+      <c r="D44" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="12">
         <v>-10</v>
       </c>
-      <c r="F44" s="5">
-        <v>10</v>
-      </c>
-      <c r="G44" s="5">
-        <v>1.8</v>
+      <c r="F44" s="12">
+        <v>10</v>
+      </c>
+      <c r="G44" s="12">
+        <v>1.32</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="4" t="s">
+      <c r="A45" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="5">
+      <c r="D45" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="12">
         <v>-10</v>
       </c>
-      <c r="F45" s="5">
-        <v>10</v>
-      </c>
-      <c r="G45" s="5">
-        <v>-0.37059999999999998</v>
+      <c r="F45" s="12">
+        <v>10</v>
+      </c>
+      <c r="G45" s="12">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C46" s="4" t="s">
+      <c r="A46" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="5">
+      <c r="D46" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="12">
         <v>-10</v>
       </c>
-      <c r="F46" s="5">
-        <v>10</v>
-      </c>
-      <c r="G46" s="5">
-        <v>0.48299999999999998</v>
+      <c r="F46" s="12">
+        <v>10</v>
+      </c>
+      <c r="G46" s="12">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C47" s="4" t="s">
+      <c r="A47" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="5">
+      <c r="D47" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="12">
         <v>-10</v>
       </c>
-      <c r="F47" s="5">
-        <v>10</v>
-      </c>
-      <c r="G47" s="5">
-        <v>-0.62939999999999996</v>
+      <c r="F47" s="12">
+        <v>10</v>
+      </c>
+      <c r="G47" s="12">
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C48" s="4" t="s">
+      <c r="A48" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="5">
+      <c r="D48" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="12">
         <v>-10</v>
       </c>
-      <c r="F48" s="5">
-        <v>10</v>
-      </c>
-      <c r="G48" s="5">
-        <v>0.48299999999999998</v>
+      <c r="F48" s="12">
+        <v>10</v>
+      </c>
+      <c r="G48" s="12">
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>156</v>
+      <c r="B49" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="4" t="s">
-        <v>197</v>
+        <v>5</v>
+      </c>
+      <c r="E49" s="5">
+        <v>-10</v>
+      </c>
+      <c r="F49" s="5">
+        <v>10</v>
+      </c>
+      <c r="G49" s="5">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>156</v>
+      <c r="B50" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>158</v>
+        <v>1</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="4" t="s">
-        <v>84</v>
+        <v>5</v>
+      </c>
+      <c r="E50" s="5">
+        <v>-10</v>
+      </c>
+      <c r="F50" s="5">
+        <v>10</v>
+      </c>
+      <c r="G50" s="5">
+        <v>-0.7</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>156</v>
+      <c r="B51" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>159</v>
+        <v>2</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="4" t="s">
-        <v>198</v>
+        <v>5</v>
+      </c>
+      <c r="E51" s="5">
+        <v>-10</v>
+      </c>
+      <c r="F51" s="5">
+        <v>10</v>
+      </c>
+      <c r="G51" s="5">
+        <v>1.8</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>156</v>
+      <c r="B52" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>160</v>
+        <v>69</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E52" s="5">
-        <v>0</v>
-      </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="4">
-        <v>720</v>
+        <v>-10</v>
+      </c>
+      <c r="F52" s="5">
+        <v>10</v>
+      </c>
+      <c r="G52" s="5">
+        <v>-0.37059999999999998</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>156</v>
+      <c r="B53" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E53" s="5">
-        <v>0</v>
-      </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="4">
-        <v>960</v>
+        <v>-10</v>
+      </c>
+      <c r="F53" s="5">
+        <v>10</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0.48299999999999998</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>156</v>
+      <c r="B54" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E54" s="5">
-        <v>0</v>
-      </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="4">
-        <v>0</v>
+        <v>-10</v>
+      </c>
+      <c r="F54" s="5">
+        <v>10</v>
+      </c>
+      <c r="G54" s="5">
+        <v>-0.62939999999999996</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>156</v>
+      <c r="B55" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E55" s="5">
-        <v>0</v>
-      </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="4">
-        <v>0</v>
+        <v>-10</v>
+      </c>
+      <c r="F55" s="5">
+        <v>10</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0.48299999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>156</v>
+      <c r="B56" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E56" s="5">
-        <v>0</v>
-      </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="4">
-        <v>0</v>
+        <v>-10</v>
+      </c>
+      <c r="F56" s="5">
+        <v>10</v>
+      </c>
+      <c r="G56" s="5">
+        <v>3.75</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>156</v>
+      <c r="B57" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>164</v>
+        <v>1</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E57" s="5">
-        <v>0</v>
-      </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="4">
+        <v>-10</v>
+      </c>
+      <c r="F57" s="5">
+        <v>10</v>
+      </c>
+      <c r="G57" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2391,62 +2497,68 @@
       <c r="A58" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>156</v>
+      <c r="B58" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>165</v>
+        <v>2</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E58" s="5">
-        <v>0</v>
-      </c>
-      <c r="F58" s="5"/>
-      <c r="G58" s="4">
-        <v>0</v>
+        <v>-10</v>
+      </c>
+      <c r="F58" s="5">
+        <v>10</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0.4</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>156</v>
+      <c r="B59" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E59" s="5">
-        <v>0</v>
-      </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="4">
-        <v>1125</v>
+        <v>-10</v>
+      </c>
+      <c r="F59" s="5">
+        <v>10</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>156</v>
+      <c r="B60" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E60" s="5">
-        <v>0</v>
-      </c>
-      <c r="F60" s="5"/>
-      <c r="G60" s="4">
+        <v>-10</v>
+      </c>
+      <c r="F60" s="5">
+        <v>10</v>
+      </c>
+      <c r="G60" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2454,42 +2566,46 @@
       <c r="A61" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>156</v>
+      <c r="B61" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E61" s="5">
-        <v>0</v>
-      </c>
-      <c r="F61" s="5"/>
-      <c r="G61" s="4">
-        <v>480</v>
+        <v>-10</v>
+      </c>
+      <c r="F61" s="5">
+        <v>10</v>
+      </c>
+      <c r="G61" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>156</v>
+      <c r="B62" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E62" s="5">
-        <v>0</v>
-      </c>
-      <c r="F62" s="5"/>
-      <c r="G62" s="4">
-        <v>0</v>
+        <v>-10</v>
+      </c>
+      <c r="F62" s="5">
+        <v>10</v>
+      </c>
+      <c r="G62" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2500,17 +2616,15 @@
         <v>156</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="5">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E63" s="5"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="4">
-        <v>1125</v>
+      <c r="G63" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2521,17 +2635,15 @@
         <v>156</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="5">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E64" s="5"/>
       <c r="F64" s="5"/>
-      <c r="G64" s="4">
-        <v>360</v>
+      <c r="G64" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2542,17 +2654,15 @@
         <v>156</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" s="5">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="4">
-        <v>0</v>
+      <c r="G65" s="4" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -2563,17 +2673,17 @@
         <v>156</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E66" s="5">
         <v>0</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="4">
-        <v>0</v>
+        <v>720</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -2584,17 +2694,17 @@
         <v>156</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E67" s="5">
         <v>0</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="4">
-        <v>1</v>
+        <v>960</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -2605,7 +2715,7 @@
         <v>156</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>5</v>
@@ -2615,7 +2725,7 @@
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -2626,7 +2736,7 @@
         <v>156</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>5</v>
@@ -2647,7 +2757,7 @@
         <v>156</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>5</v>
@@ -2668,7 +2778,7 @@
         <v>156</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>5</v>
@@ -2689,7 +2799,7 @@
         <v>156</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>5</v>
@@ -2699,7 +2809,7 @@
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -2710,7 +2820,7 @@
         <v>156</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>5</v>
@@ -2720,7 +2830,7 @@
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="4">
-        <v>0</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -2731,7 +2841,7 @@
         <v>156</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>5</v>
@@ -2752,7 +2862,7 @@
         <v>156</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>5</v>
@@ -2762,7 +2872,7 @@
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="4">
-        <v>0</v>
+        <v>480</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -2773,7 +2883,7 @@
         <v>156</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>5</v>
@@ -2783,7 +2893,7 @@
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -2794,7 +2904,7 @@
         <v>156</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>5</v>
@@ -2815,7 +2925,7 @@
         <v>156</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>5</v>
@@ -2825,7 +2935,7 @@
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="4">
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -2836,7 +2946,7 @@
         <v>156</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>5</v>
@@ -2846,7 +2956,7 @@
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="4">
-        <v>480</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -2857,7 +2967,7 @@
         <v>156</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>5</v>
@@ -2878,7 +2988,7 @@
         <v>156</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>5</v>
@@ -2888,7 +2998,7 @@
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -2899,7 +3009,7 @@
         <v>156</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>5</v>
@@ -2909,7 +3019,7 @@
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="4">
-        <v>1125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -2920,7 +3030,7 @@
         <v>156</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>5</v>
@@ -2930,7 +3040,7 @@
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="4">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -2941,7 +3051,7 @@
         <v>156</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>5</v>
@@ -2962,7 +3072,7 @@
         <v>156</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>5</v>
@@ -2983,7 +3093,7 @@
         <v>156</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>5</v>
@@ -2993,7 +3103,7 @@
       </c>
       <c r="F86" s="5"/>
       <c r="G86" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -3004,7 +3114,7 @@
         <v>156</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>5</v>
@@ -3014,7 +3124,7 @@
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -3025,7 +3135,7 @@
         <v>156</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>5</v>
@@ -3043,18 +3153,20 @@
         <v>23</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E89" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="E89" s="5">
+        <v>0</v>
+      </c>
       <c r="F89" s="5"/>
-      <c r="G89" s="4" t="s">
-        <v>199</v>
+      <c r="G89" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -3062,18 +3174,20 @@
         <v>23</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E90" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="E90" s="5">
+        <v>0</v>
+      </c>
       <c r="F90" s="5"/>
-      <c r="G90" s="4" t="s">
-        <v>200</v>
+      <c r="G90" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -3081,18 +3195,20 @@
         <v>23</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E91" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="E91" s="5">
+        <v>0</v>
+      </c>
       <c r="F91" s="5"/>
-      <c r="G91" s="4" t="s">
-        <v>201</v>
+      <c r="G91" s="4">
+        <v>1125</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -3100,20 +3216,20 @@
         <v>23</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E92" s="5">
         <v>0</v>
       </c>
       <c r="F92" s="5"/>
       <c r="G92" s="4">
-        <v>720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -3121,20 +3237,20 @@
         <v>23</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>50</v>
+        <v>186</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E93" s="5">
         <v>0</v>
       </c>
       <c r="F93" s="5"/>
       <c r="G93" s="4">
-        <v>960</v>
+        <v>480</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -3142,10 +3258,10 @@
         <v>23</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>5</v>
@@ -3163,10 +3279,10 @@
         <v>23</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>5</v>
@@ -3184,10 +3300,10 @@
         <v>23</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>5</v>
@@ -3197,7 +3313,7 @@
       </c>
       <c r="F96" s="5"/>
       <c r="G96" s="4">
-        <v>0</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -3205,10 +3321,10 @@
         <v>23</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>5</v>
@@ -3218,7 +3334,7 @@
       </c>
       <c r="F97" s="5"/>
       <c r="G97" s="4">
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -3226,10 +3342,10 @@
         <v>23</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>5</v>
@@ -3247,10 +3363,10 @@
         <v>23</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>5</v>
@@ -3260,7 +3376,7 @@
       </c>
       <c r="F99" s="5"/>
       <c r="G99" s="4">
-        <v>1125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -3268,10 +3384,10 @@
         <v>23</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>5</v>
@@ -3289,10 +3405,10 @@
         <v>23</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>5</v>
@@ -3302,7 +3418,7 @@
       </c>
       <c r="F101" s="5"/>
       <c r="G101" s="4">
-        <v>480</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -3310,10 +3426,10 @@
         <v>23</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>5</v>
@@ -3334,17 +3450,15 @@
         <v>196</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E103" s="5">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E103" s="5"/>
       <c r="F103" s="5"/>
-      <c r="G103" s="4">
-        <v>1125</v>
+      <c r="G103" s="4" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -3355,17 +3469,15 @@
         <v>196</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E104" s="5">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E104" s="5"/>
       <c r="F104" s="5"/>
-      <c r="G104" s="4">
-        <v>360</v>
+      <c r="G104" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -3376,17 +3488,15 @@
         <v>196</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E105" s="5">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E105" s="5"/>
       <c r="F105" s="5"/>
-      <c r="G105" s="4">
-        <v>0</v>
+      <c r="G105" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -3397,17 +3507,17 @@
         <v>196</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E106" s="5">
         <v>0</v>
       </c>
       <c r="F106" s="5"/>
       <c r="G106" s="4">
-        <v>0</v>
+        <v>720</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -3418,17 +3528,17 @@
         <v>196</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E107" s="5">
         <v>0</v>
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="4">
-        <v>1</v>
+        <v>960</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -3439,7 +3549,7 @@
         <v>196</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>5</v>
@@ -3449,7 +3559,7 @@
       </c>
       <c r="F108" s="5"/>
       <c r="G108" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -3460,7 +3570,7 @@
         <v>196</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>5</v>
@@ -3481,7 +3591,7 @@
         <v>196</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>5</v>
@@ -3502,7 +3612,7 @@
         <v>196</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>5</v>
@@ -3523,7 +3633,7 @@
         <v>196</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>5</v>
@@ -3533,7 +3643,7 @@
       </c>
       <c r="F112" s="5"/>
       <c r="G112" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -3544,7 +3654,7 @@
         <v>196</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>5</v>
@@ -3554,7 +3664,7 @@
       </c>
       <c r="F113" s="5"/>
       <c r="G113" s="4">
-        <v>0</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -3565,7 +3675,7 @@
         <v>196</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>5</v>
@@ -3586,7 +3696,7 @@
         <v>196</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>5</v>
@@ -3596,7 +3706,7 @@
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="4">
-        <v>0</v>
+        <v>480</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -3607,7 +3717,7 @@
         <v>196</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>5</v>
@@ -3617,7 +3727,7 @@
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -3628,7 +3738,7 @@
         <v>196</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>5</v>
@@ -3649,7 +3759,7 @@
         <v>196</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>5</v>
@@ -3659,7 +3769,7 @@
       </c>
       <c r="F118" s="5"/>
       <c r="G118" s="4">
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -3670,7 +3780,7 @@
         <v>196</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>5</v>
@@ -3680,7 +3790,7 @@
       </c>
       <c r="F119" s="5"/>
       <c r="G119" s="4">
-        <v>480</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -3691,7 +3801,7 @@
         <v>196</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>5</v>
@@ -3712,7 +3822,7 @@
         <v>196</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>5</v>
@@ -3722,7 +3832,7 @@
       </c>
       <c r="F121" s="5"/>
       <c r="G121" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -3733,7 +3843,7 @@
         <v>196</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>5</v>
@@ -3743,7 +3853,7 @@
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="4">
-        <v>1125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -3754,7 +3864,7 @@
         <v>196</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>5</v>
@@ -3764,7 +3874,7 @@
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="4">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -3775,7 +3885,7 @@
         <v>196</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>5</v>
@@ -3796,7 +3906,7 @@
         <v>196</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>5</v>
@@ -3817,7 +3927,7 @@
         <v>196</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>5</v>
@@ -3827,7 +3937,7 @@
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -3838,7 +3948,7 @@
         <v>196</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>5</v>
@@ -3848,7 +3958,7 @@
       </c>
       <c r="F127" s="5"/>
       <c r="G127" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
@@ -3859,7 +3969,7 @@
         <v>196</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>5</v>
@@ -3877,18 +3987,20 @@
         <v>23</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E129" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="E129" s="5">
+        <v>0</v>
+      </c>
       <c r="F129" s="5"/>
-      <c r="G129" s="5" t="b">
-        <v>1</v>
+      <c r="G129" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
@@ -3896,22 +4008,20 @@
         <v>23</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>74</v>
+        <v>183</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E130" s="5">
         <v>0</v>
       </c>
-      <c r="F130" s="5">
-        <v>3</v>
-      </c>
-      <c r="G130" s="5">
-        <v>0</v>
+      <c r="F130" s="5"/>
+      <c r="G130" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
@@ -3919,10 +4029,10 @@
         <v>23</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>5</v>
@@ -3930,11 +4040,9 @@
       <c r="E131" s="5">
         <v>0</v>
       </c>
-      <c r="F131" s="5">
-        <v>1</v>
-      </c>
-      <c r="G131" s="5">
-        <v>0.5</v>
+      <c r="F131" s="5"/>
+      <c r="G131" s="4">
+        <v>1125</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -3942,18 +4050,20 @@
         <v>23</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E132" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="E132" s="5">
+        <v>0</v>
+      </c>
       <c r="F132" s="5"/>
-      <c r="G132" s="8" t="s">
-        <v>238</v>
+      <c r="G132" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
@@ -3961,18 +4071,20 @@
         <v>23</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E133" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="E133" s="5">
+        <v>0</v>
+      </c>
       <c r="F133" s="5"/>
-      <c r="G133" s="8" t="s">
-        <v>239</v>
+      <c r="G133" s="4">
+        <v>480</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -3980,18 +4092,20 @@
         <v>23</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E134" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="E134" s="5">
+        <v>0</v>
+      </c>
       <c r="F134" s="5"/>
-      <c r="G134" s="8" t="s">
-        <v>81</v>
+      <c r="G134" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -3999,18 +4113,20 @@
         <v>23</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E135" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="E135" s="5">
+        <v>0</v>
+      </c>
       <c r="F135" s="5"/>
-      <c r="G135" s="8" t="s">
-        <v>80</v>
+      <c r="G135" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -4018,18 +4134,20 @@
         <v>23</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E136" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="E136" s="5">
+        <v>0</v>
+      </c>
       <c r="F136" s="5"/>
-      <c r="G136" s="8" t="s">
-        <v>84</v>
+      <c r="G136" s="4">
+        <v>1125</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -4037,18 +4155,20 @@
         <v>23</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E137" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="E137" s="5">
+        <v>0</v>
+      </c>
       <c r="F137" s="5"/>
-      <c r="G137" s="8" t="s">
-        <v>86</v>
+      <c r="G137" s="4">
+        <v>360</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -4056,22 +4176,20 @@
         <v>23</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E138" s="5">
-        <v>-10</v>
-      </c>
-      <c r="F138" s="5">
-        <v>10</v>
-      </c>
-      <c r="G138" s="5">
-        <v>1.2</v>
+        <v>0</v>
+      </c>
+      <c r="F138" s="5"/>
+      <c r="G138" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -4079,18 +4197,20 @@
         <v>23</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E139" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="E139" s="5">
+        <v>0</v>
+      </c>
       <c r="F139" s="5"/>
-      <c r="G139" s="9" t="s">
-        <v>90</v>
+      <c r="G139" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -4098,18 +4218,20 @@
         <v>23</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E140" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="E140" s="5">
+        <v>0</v>
+      </c>
       <c r="F140" s="5"/>
-      <c r="G140" s="5" t="b">
-        <v>1</v>
+      <c r="G140" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
@@ -4117,18 +4239,20 @@
         <v>23</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E141" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="E141" s="5">
+        <v>0</v>
+      </c>
       <c r="F141" s="5"/>
-      <c r="G141" s="5" t="b">
-        <v>0</v>
+      <c r="G141" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -4136,10 +4260,10 @@
         <v>23</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>93</v>
+        <v>195</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>5</v>
@@ -4147,11 +4271,9 @@
       <c r="E142" s="5">
         <v>0</v>
       </c>
-      <c r="F142" s="5">
-        <v>1</v>
-      </c>
-      <c r="G142" s="5">
-        <v>0.1</v>
+      <c r="F142" s="5"/>
+      <c r="G142" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -4159,20 +4281,18 @@
         <v>23</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>88</v>
+        <v>210</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E143" s="5">
-        <v>0</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E143" s="5"/>
       <c r="F143" s="5"/>
-      <c r="G143" s="5">
-        <v>7</v>
+      <c r="G143" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -4180,20 +4300,22 @@
         <v>23</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>88</v>
+        <v>210</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E144" s="5">
         <v>0</v>
       </c>
-      <c r="F144" s="5"/>
+      <c r="F144" s="5">
+        <v>3</v>
+      </c>
       <c r="G144" s="5">
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -4201,18 +4323,22 @@
         <v>23</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>88</v>
+        <v>210</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5" t="b">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E145" s="5">
+        <v>0</v>
+      </c>
+      <c r="F145" s="5">
+        <v>1</v>
+      </c>
+      <c r="G145" s="5">
+        <v>0.5</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -4220,18 +4346,18 @@
         <v>23</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>88</v>
+        <v>210</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
-      <c r="G146" s="5" t="b">
-        <v>0</v>
+      <c r="G146" s="8" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -4239,18 +4365,18 @@
         <v>23</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>88</v>
+        <v>210</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
-      <c r="G147" s="5" t="b">
-        <v>1</v>
+      <c r="G147" s="8" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -4258,22 +4384,18 @@
         <v>23</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>88</v>
+        <v>210</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E148" s="5">
-        <v>-10</v>
-      </c>
-      <c r="F148" s="5">
-        <v>10</v>
-      </c>
-      <c r="G148" s="5">
-        <v>-1.5</v>
+        <v>19</v>
+      </c>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -4281,22 +4403,18 @@
         <v>23</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>88</v>
+        <v>210</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E149" s="5">
-        <v>-10</v>
-      </c>
-      <c r="F149" s="5">
-        <v>10</v>
-      </c>
-      <c r="G149" s="5">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -4304,18 +4422,18 @@
         <v>23</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
-      <c r="G150" s="5" t="b">
-        <v>0</v>
+      <c r="G150" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -4323,22 +4441,18 @@
         <v>23</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E151" s="5">
-        <v>0</v>
-      </c>
-      <c r="F151" s="5">
-        <v>10</v>
-      </c>
-      <c r="G151" s="5">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -4346,22 +4460,22 @@
         <v>23</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E152" s="5">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F152" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G152" s="5">
-        <v>5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -4372,19 +4486,15 @@
         <v>88</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E153" s="5">
-        <v>0</v>
-      </c>
-      <c r="F153" s="5">
-        <v>20</v>
-      </c>
-      <c r="G153" s="5">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -4395,19 +4505,15 @@
         <v>88</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E154" s="5">
-        <v>0</v>
-      </c>
-      <c r="F154" s="5">
-        <v>10</v>
-      </c>
-      <c r="G154" s="5">
-        <v>1.5</v>
+        <v>63</v>
+      </c>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -4418,19 +4524,15 @@
         <v>88</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E155" s="5">
-        <v>0</v>
-      </c>
-      <c r="F155" s="5">
-        <v>10</v>
-      </c>
-      <c r="G155" s="5">
-        <v>0.75</v>
+        <v>63</v>
+      </c>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -4441,15 +4543,19 @@
         <v>88</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="5" t="b">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E156" s="5">
+        <v>0</v>
+      </c>
+      <c r="F156" s="5">
+        <v>1</v>
+      </c>
+      <c r="G156" s="5">
+        <v>0.1</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -4460,15 +4566,17 @@
         <v>88</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E157" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="E157" s="5">
+        <v>0</v>
+      </c>
       <c r="F157" s="5"/>
-      <c r="G157" s="5" t="s">
-        <v>21</v>
+      <c r="G157" s="5">
+        <v>7</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -4479,15 +4587,17 @@
         <v>88</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E158" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="E158" s="5">
+        <v>0</v>
+      </c>
       <c r="F158" s="5"/>
-      <c r="G158" s="5" t="s">
-        <v>114</v>
+      <c r="G158" s="5">
+        <v>100000</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -4498,15 +4608,15 @@
         <v>88</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
-      <c r="G159" s="5" t="s">
-        <v>115</v>
+      <c r="G159" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -4517,15 +4627,15 @@
         <v>88</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
-      <c r="G160" s="5">
-        <v>255</v>
+      <c r="G160" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -4536,15 +4646,15 @@
         <v>88</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
-      <c r="G161" s="5" t="s">
-        <v>116</v>
+      <c r="G161" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -4555,7 +4665,7 @@
         <v>88</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>5</v>
@@ -4567,7 +4677,7 @@
         <v>10</v>
       </c>
       <c r="G162" s="5">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
@@ -4578,15 +4688,19 @@
         <v>88</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="5" t="b">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E163" s="5">
+        <v>-10</v>
+      </c>
+      <c r="F163" s="5">
+        <v>10</v>
+      </c>
+      <c r="G163" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -4597,7 +4711,7 @@
         <v>88</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>63</v>
@@ -4616,15 +4730,19 @@
         <v>88</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="5" t="s">
-        <v>117</v>
+        <v>5</v>
+      </c>
+      <c r="E165" s="5">
+        <v>0</v>
+      </c>
+      <c r="F165" s="5">
+        <v>10</v>
+      </c>
+      <c r="G165" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -4635,15 +4753,19 @@
         <v>88</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5" t="s">
-        <v>118</v>
+        <v>5</v>
+      </c>
+      <c r="E166" s="5">
+        <v>0</v>
+      </c>
+      <c r="F166" s="5">
+        <v>11</v>
+      </c>
+      <c r="G166" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -4651,18 +4773,22 @@
         <v>23</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
-      <c r="G167" s="9" t="s">
-        <v>127</v>
+        <v>5</v>
+      </c>
+      <c r="E167" s="5">
+        <v>0</v>
+      </c>
+      <c r="F167" s="5">
+        <v>20</v>
+      </c>
+      <c r="G167" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -4670,18 +4796,22 @@
         <v>23</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
-      <c r="G168" s="9" t="s">
-        <v>128</v>
+        <v>5</v>
+      </c>
+      <c r="E168" s="5">
+        <v>0</v>
+      </c>
+      <c r="F168" s="5">
+        <v>10</v>
+      </c>
+      <c r="G168" s="5">
+        <v>1.5</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -4689,18 +4819,22 @@
         <v>23</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
-      <c r="G169" s="9" t="s">
-        <v>84</v>
+        <v>5</v>
+      </c>
+      <c r="E169" s="5">
+        <v>0</v>
+      </c>
+      <c r="F169" s="5">
+        <v>10</v>
+      </c>
+      <c r="G169" s="5">
+        <v>0.75</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -4708,18 +4842,18 @@
         <v>23</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
-      <c r="G170" s="5" t="s">
-        <v>129</v>
+      <c r="G170" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -4727,10 +4861,10 @@
         <v>23</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>19</v>
@@ -4738,7 +4872,7 @@
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -4746,10 +4880,10 @@
         <v>23</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>19</v>
@@ -4757,7 +4891,7 @@
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
       <c r="G172" s="5" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -4765,18 +4899,18 @@
         <v>23</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
-      <c r="G173" s="5" t="b">
-        <v>0</v>
+      <c r="G173" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -4784,22 +4918,18 @@
         <v>23</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E174" s="5">
-        <v>0</v>
-      </c>
-      <c r="F174" s="5">
-        <v>10</v>
-      </c>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
       <c r="G174" s="5">
-        <v>0.4</v>
+        <v>255</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -4807,18 +4937,18 @@
         <v>23</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
-      <c r="G175" s="9" t="s">
-        <v>134</v>
+      <c r="G175" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -4826,18 +4956,22 @@
         <v>23</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
-      <c r="G176" s="9" t="s">
-        <v>84</v>
+        <v>5</v>
+      </c>
+      <c r="E176" s="5">
+        <v>-10</v>
+      </c>
+      <c r="F176" s="5">
+        <v>10</v>
+      </c>
+      <c r="G176" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -4845,10 +4979,10 @@
         <v>23</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>63</v>
@@ -4864,18 +4998,18 @@
         <v>23</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
-      <c r="G178" s="9" t="s">
-        <v>81</v>
+      <c r="G178" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
@@ -4883,18 +5017,18 @@
         <v>23</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
-      <c r="G179" s="9" t="s">
-        <v>139</v>
+      <c r="G179" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
@@ -4902,553 +5036,485 @@
         <v>23</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
-      <c r="G180" s="9" t="s">
-        <v>140</v>
+      <c r="G180" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>137</v>
+      <c r="A181" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>244</v>
       </c>
       <c r="D181" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12">
+        <v>9.2200000000000006</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="12">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B183" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E183" s="12"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C184" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B185" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B187" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C187" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B188" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="12">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B189" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C190" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D190" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
-      <c r="G181" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D182" s="5" t="s">
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D191" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
-      <c r="G182" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E183" s="5">
-        <v>0</v>
-      </c>
-      <c r="F183" s="5">
-        <v>2</v>
-      </c>
-      <c r="G183" s="5">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A184" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D184" s="5" t="s">
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B192" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C192" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E192" s="12"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B193" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C193" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="D193" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E184" s="5"/>
-      <c r="F184" s="5"/>
-      <c r="G184" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E185" s="5"/>
-      <c r="F185" s="5"/>
-      <c r="G185" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A186" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D186" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
-      <c r="G186" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A187" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E187" s="5"/>
-      <c r="F187" s="5"/>
-      <c r="G187" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A188" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E188" s="5">
-        <v>0</v>
-      </c>
-      <c r="F188" s="5">
-        <v>2</v>
-      </c>
-      <c r="G188" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A189" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D189" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E189" s="5">
-        <v>0</v>
-      </c>
-      <c r="F189" s="5">
-        <v>2</v>
-      </c>
-      <c r="G189" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A190" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D190" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E190" s="5"/>
-      <c r="F190" s="5"/>
-      <c r="G190" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A191" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C191" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E191" s="5">
-        <v>0</v>
-      </c>
-      <c r="F191" s="5">
-        <v>100</v>
-      </c>
-      <c r="G191" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D192" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E192" s="5">
-        <v>0</v>
-      </c>
-      <c r="F192" s="5">
-        <v>10</v>
-      </c>
-      <c r="G192" s="5">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D193" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E193" s="5">
-        <v>0</v>
-      </c>
-      <c r="F193" s="5">
-        <v>10</v>
-      </c>
-      <c r="G193" s="5">
-        <v>0.5</v>
+      <c r="E193" s="12"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>33</v>
+      <c r="A194" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B194" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C194" s="13" t="s">
+        <v>261</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E194" s="5">
-        <v>0</v>
-      </c>
-      <c r="F194" s="5">
-        <v>20</v>
-      </c>
-      <c r="G194" s="5">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E194" s="12"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="12" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>65</v>
+        <v>23</v>
+      </c>
+      <c r="B195" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>34</v>
+        <v>262</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E195" s="5">
-        <v>0</v>
-      </c>
-      <c r="F195" s="5">
-        <v>50</v>
-      </c>
-      <c r="G195" s="5">
-        <v>5.5</v>
+        <v>19</v>
+      </c>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>65</v>
+        <v>23</v>
+      </c>
+      <c r="B196" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>35</v>
+        <v>263</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E196" s="5">
-        <v>0</v>
-      </c>
-      <c r="F196" s="5">
-        <v>50</v>
-      </c>
-      <c r="G196" s="5">
-        <v>0.1</v>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>65</v>
+        <v>23</v>
+      </c>
+      <c r="B197" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>36</v>
+        <v>264</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E197" s="5">
-        <v>0</v>
-      </c>
-      <c r="F197" s="5">
-        <v>200</v>
-      </c>
-      <c r="G197" s="5">
-        <v>50</v>
+        <v>19</v>
+      </c>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E198" s="5">
-        <v>0</v>
-      </c>
-      <c r="F198" s="5">
-        <v>500</v>
-      </c>
-      <c r="G198" s="5">
-        <v>200</v>
+        <v>19</v>
+      </c>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E199" s="5">
-        <v>0</v>
-      </c>
-      <c r="F199" s="5">
-        <v>100</v>
-      </c>
-      <c r="G199" s="5">
-        <v>50</v>
+        <v>19</v>
+      </c>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E200" s="5">
-        <v>0</v>
-      </c>
-      <c r="F200" s="5">
-        <v>100</v>
-      </c>
-      <c r="G200" s="5">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E201" s="5">
-        <v>0</v>
-      </c>
-      <c r="F201" s="5">
-        <v>100</v>
-      </c>
-      <c r="G201" s="5">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E202" s="5">
-        <v>0</v>
-      </c>
-      <c r="F202" s="5">
-        <v>10</v>
-      </c>
-      <c r="G202" s="5">
-        <v>1.2</v>
+        <v>19</v>
+      </c>
+      <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E203" s="5">
-        <v>0</v>
-      </c>
-      <c r="F203" s="5">
-        <v>10</v>
-      </c>
-      <c r="G203" s="5">
-        <v>0.45</v>
+        <v>19</v>
+      </c>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E204" s="5">
-        <v>0</v>
-      </c>
-      <c r="F204" s="5">
-        <v>10</v>
-      </c>
-      <c r="G204" s="5">
-        <v>0.4</v>
+        <v>63</v>
+      </c>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D205" s="5" t="s">
         <v>5</v>
@@ -5460,60 +5526,56 @@
         <v>10</v>
       </c>
       <c r="G205" s="5">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E206" s="5">
-        <v>0</v>
-      </c>
-      <c r="F206" s="5">
-        <v>10</v>
-      </c>
-      <c r="G206" s="5">
-        <v>0.1</v>
+        <v>19</v>
+      </c>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
-      <c r="G207" s="5" t="b">
-        <v>1</v>
+      <c r="G207" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="D208" s="5" t="s">
         <v>63</v>
@@ -5521,121 +5583,113 @@
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
       <c r="G208" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
-      <c r="G209" s="5" t="b">
-        <v>1</v>
+      <c r="G209" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
-      <c r="G210" s="5" t="b">
-        <v>0</v>
+      <c r="G210" s="9" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
-      <c r="G211" s="5" t="b">
-        <v>1</v>
+      <c r="G211" s="9" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E212" s="5">
-        <v>0</v>
-      </c>
-      <c r="F212" s="5">
-        <v>10</v>
-      </c>
-      <c r="G212" s="5">
-        <v>2.2000000000000002</v>
+        <v>19</v>
+      </c>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="9" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E213" s="5">
-        <v>0</v>
-      </c>
-      <c r="F213" s="5">
-        <v>10</v>
-      </c>
-      <c r="G213" s="5">
-        <v>4.8</v>
+        <v>19</v>
+      </c>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>5</v>
@@ -5644,194 +5698,174 @@
         <v>0</v>
       </c>
       <c r="F214" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G214" s="5">
-        <v>2.9</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E215" s="5">
-        <v>0</v>
-      </c>
-      <c r="F215" s="5">
-        <v>10</v>
-      </c>
-      <c r="G215" s="5">
+        <v>63</v>
+      </c>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E216" s="5">
-        <v>0</v>
-      </c>
-      <c r="F216" s="5">
-        <v>10</v>
-      </c>
-      <c r="G216" s="5">
-        <v>0.8</v>
+        <v>63</v>
+      </c>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E217" s="5">
-        <v>0</v>
-      </c>
-      <c r="F217" s="5">
-        <v>10</v>
-      </c>
-      <c r="G217" s="5">
-        <v>1.2</v>
+        <v>63</v>
+      </c>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E218" s="5">
-        <v>0</v>
-      </c>
-      <c r="F218" s="5">
-        <v>10</v>
-      </c>
-      <c r="G218" s="5">
-        <v>3</v>
+        <v>63</v>
+      </c>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E219" s="5">
         <v>0</v>
       </c>
       <c r="F219" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G219" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E220" s="5">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F220" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G220" s="5">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E221" s="5">
-        <v>0</v>
-      </c>
-      <c r="F221" s="5">
-        <v>10</v>
-      </c>
-      <c r="G221" s="5">
-        <v>3</v>
+        <v>63</v>
+      </c>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>60</v>
+        <v>236</v>
       </c>
       <c r="D222" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E222" s="5">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F222" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G222" s="5">
-        <v>-3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
@@ -5842,19 +5876,19 @@
         <v>65</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E223" s="5">
         <v>0</v>
       </c>
       <c r="F223" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G223" s="5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -5862,18 +5896,22 @@
         <v>214</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E224" s="5"/>
-      <c r="F224" s="5"/>
-      <c r="G224" s="5" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E224" s="5">
+        <v>0</v>
+      </c>
+      <c r="F224" s="5">
+        <v>10</v>
+      </c>
+      <c r="G224" s="5">
+        <v>0.5</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -5881,18 +5919,22 @@
         <v>214</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E225" s="5"/>
-      <c r="F225" s="5"/>
-      <c r="G225" s="5" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E225" s="5">
+        <v>0</v>
+      </c>
+      <c r="F225" s="5">
+        <v>20</v>
+      </c>
+      <c r="G225" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
@@ -5900,18 +5942,22 @@
         <v>214</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E226" s="5"/>
-      <c r="F226" s="5"/>
-      <c r="G226" s="5" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E226" s="5">
+        <v>0</v>
+      </c>
+      <c r="F226" s="5">
+        <v>50</v>
+      </c>
+      <c r="G226" s="5">
+        <v>5.5</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
@@ -5919,10 +5965,10 @@
         <v>214</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D227" s="5" t="s">
         <v>5</v>
@@ -5931,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="F227" s="5">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G227" s="5">
         <v>0.1</v>
@@ -5942,10 +5988,10 @@
         <v>214</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D228" s="5" t="s">
         <v>5</v>
@@ -5954,21 +6000,21 @@
         <v>0</v>
       </c>
       <c r="F228" s="5">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G228" s="5">
-        <v>0.1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B229" s="4" t="s">
-        <v>145</v>
+      <c r="B229" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D229" s="5" t="s">
         <v>5</v>
@@ -5977,10 +6023,10 @@
         <v>0</v>
       </c>
       <c r="F229" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G229" s="5">
-        <v>25</v>
+        <v>200</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
@@ -5988,22 +6034,22 @@
         <v>214</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E230" s="5">
         <v>0</v>
       </c>
       <c r="F230" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G230" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -6011,10 +6057,10 @@
         <v>214</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="D231" s="5" t="s">
         <v>5</v>
@@ -6026,7 +6072,7 @@
         <v>100</v>
       </c>
       <c r="G231" s="5">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
@@ -6034,10 +6080,10 @@
         <v>214</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="D232" s="5" t="s">
         <v>5</v>
@@ -6046,10 +6092,10 @@
         <v>0</v>
       </c>
       <c r="F232" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G232" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
@@ -6057,10 +6103,10 @@
         <v>214</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="D233" s="5" t="s">
         <v>5</v>
@@ -6072,7 +6118,7 @@
         <v>10</v>
       </c>
       <c r="G233" s="5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
@@ -6080,10 +6126,10 @@
         <v>214</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="D234" s="5" t="s">
         <v>5</v>
@@ -6095,7 +6141,7 @@
         <v>10</v>
       </c>
       <c r="G234" s="5">
-        <v>6</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
@@ -6103,10 +6149,10 @@
         <v>214</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="D235" s="5" t="s">
         <v>5</v>
@@ -6118,7 +6164,7 @@
         <v>10</v>
       </c>
       <c r="G235" s="5">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
@@ -6126,10 +6172,10 @@
         <v>214</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="D236" s="5" t="s">
         <v>5</v>
@@ -6141,61 +6187,742 @@
         <v>10</v>
       </c>
       <c r="G236" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>226</v>
+        <v>65</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D237" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E237" s="7"/>
-      <c r="F237" s="7"/>
-      <c r="G237" s="11" t="s">
-        <v>236</v>
+        <v>45</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E237" s="5">
+        <v>0</v>
+      </c>
+      <c r="F237" s="5">
+        <v>10</v>
+      </c>
+      <c r="G237" s="5">
+        <v>0.1</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B238" s="7" t="s">
-        <v>229</v>
+        <v>214</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D238" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E238" s="7"/>
-      <c r="F238" s="7"/>
-      <c r="G238" s="6" t="s">
-        <v>231</v>
+        <v>46</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E238" s="5"/>
+      <c r="F238" s="5"/>
+      <c r="G238" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E239" s="5"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E240" s="5"/>
+      <c r="F240" s="5"/>
+      <c r="G240" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E241" s="5"/>
+      <c r="F241" s="5"/>
+      <c r="G241" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E242" s="5"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E243" s="5">
+        <v>0</v>
+      </c>
+      <c r="F243" s="5">
+        <v>10</v>
+      </c>
+      <c r="G243" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E244" s="5">
+        <v>0</v>
+      </c>
+      <c r="F244" s="5">
+        <v>10</v>
+      </c>
+      <c r="G244" s="5">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E245" s="5">
+        <v>0</v>
+      </c>
+      <c r="F245" s="5">
+        <v>10</v>
+      </c>
+      <c r="G245" s="5">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E246" s="5">
+        <v>0</v>
+      </c>
+      <c r="F246" s="5">
+        <v>10</v>
+      </c>
+      <c r="G246" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E247" s="5">
+        <v>0</v>
+      </c>
+      <c r="F247" s="5">
+        <v>10</v>
+      </c>
+      <c r="G247" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E248" s="5">
+        <v>0</v>
+      </c>
+      <c r="F248" s="5">
+        <v>10</v>
+      </c>
+      <c r="G248" s="5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E249" s="5">
+        <v>0</v>
+      </c>
+      <c r="F249" s="5">
+        <v>10</v>
+      </c>
+      <c r="G249" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E250" s="5">
+        <v>0</v>
+      </c>
+      <c r="F250" s="5">
+        <v>10</v>
+      </c>
+      <c r="G250" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E251" s="5">
+        <v>-10</v>
+      </c>
+      <c r="F251" s="5">
+        <v>10</v>
+      </c>
+      <c r="G251" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E252" s="5">
+        <v>0</v>
+      </c>
+      <c r="F252" s="5">
+        <v>10</v>
+      </c>
+      <c r="G252" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E253" s="5">
+        <v>-10</v>
+      </c>
+      <c r="F253" s="5">
+        <v>0</v>
+      </c>
+      <c r="G253" s="5">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E254" s="5">
+        <v>0</v>
+      </c>
+      <c r="F254" s="5">
+        <v>2</v>
+      </c>
+      <c r="G254" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E255" s="5"/>
+      <c r="F255" s="5"/>
+      <c r="G255" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E256" s="5"/>
+      <c r="F256" s="5"/>
+      <c r="G256" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E257" s="5"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E258" s="5">
+        <v>0</v>
+      </c>
+      <c r="F258" s="5">
+        <v>10</v>
+      </c>
+      <c r="G258" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E259" s="5">
+        <v>0</v>
+      </c>
+      <c r="F259" s="5">
+        <v>10</v>
+      </c>
+      <c r="G259" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E260" s="5">
+        <v>0</v>
+      </c>
+      <c r="F260" s="5">
+        <v>100</v>
+      </c>
+      <c r="G260" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E261" s="5">
+        <v>0</v>
+      </c>
+      <c r="F261" s="5">
+        <v>1</v>
+      </c>
+      <c r="G261" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E262" s="5">
+        <v>0</v>
+      </c>
+      <c r="F262" s="5">
+        <v>100</v>
+      </c>
+      <c r="G262" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E263" s="5">
+        <v>0</v>
+      </c>
+      <c r="F263" s="5">
+        <v>10</v>
+      </c>
+      <c r="G263" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E264" s="5">
+        <v>0</v>
+      </c>
+      <c r="F264" s="5">
+        <v>10</v>
+      </c>
+      <c r="G264" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E265" s="5">
+        <v>0</v>
+      </c>
+      <c r="F265" s="5">
+        <v>10</v>
+      </c>
+      <c r="G265" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A266" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E266" s="5">
+        <v>0</v>
+      </c>
+      <c r="F266" s="5">
+        <v>10</v>
+      </c>
+      <c r="G266" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E267" s="5">
+        <v>0</v>
+      </c>
+      <c r="F267" s="5">
+        <v>10</v>
+      </c>
+      <c r="G267" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A268" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D268" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E268" s="7"/>
+      <c r="F268" s="7"/>
+      <c r="G268" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A269" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B239" s="7" t="s">
+      <c r="B269" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D269" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E269" s="7"/>
+      <c r="F269" s="7"/>
+      <c r="G269" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A270" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B270" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C239" s="4" t="s">
+      <c r="C270" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D239" s="7" t="s">
+      <c r="D270" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G239" t="s">
+      <c r="G270" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6204,4 +6931,18 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="45" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739BDD3A-4FB7-42E2-844E-959887766D5A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AD-EYE/TA/Configurations/AutowareConfigTemplate.xlsx
+++ b/AD-EYE/TA/Configurations/AutowareConfigTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adeye\AD-EYE_Core\AD-EYE\TA\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE4764D-408F-48AB-BF37-EB5552932153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682B2F65-7FFC-4077-9F4B-D4A1EC4859BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6744" yWindow="1596" windowWidth="14724" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="261">
   <si>
     <t>tf_x</t>
   </si>
@@ -751,9 +751,6 @@
     <t>BaseLink_to_camera1</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>BaseLink_to_camera2</t>
   </si>
   <si>
@@ -778,9 +775,6 @@
     <t>/map</t>
   </si>
   <si>
-    <t>/detection/object_tracker/</t>
-  </si>
-  <si>
     <t>detection_probability</t>
   </si>
   <si>
@@ -815,12 +809,6 @@
   </si>
   <si>
     <t>lane_frame</t>
-  </si>
-  <si>
-    <t>merge_distance_threshold</t>
-  </si>
-  <si>
-    <t>namespace</t>
   </si>
 </sst>
 </file>
@@ -1218,10 +1206,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G270"/>
+  <dimension ref="A1:G268"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B165" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D187" sqref="D187"/>
+      <selection activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2130,7 +2118,7 @@
         <v>23</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>0</v>
@@ -2153,7 +2141,7 @@
         <v>23</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>1</v>
@@ -2176,7 +2164,7 @@
         <v>23</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>2</v>
@@ -2199,7 +2187,7 @@
         <v>23</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>69</v>
@@ -2222,7 +2210,7 @@
         <v>23</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>70</v>
@@ -2245,7 +2233,7 @@
         <v>23</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>71</v>
@@ -2268,7 +2256,7 @@
         <v>23</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>72</v>
@@ -5055,10 +5043,10 @@
         <v>23</v>
       </c>
       <c r="B181" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C181" s="13" t="s">
         <v>243</v>
-      </c>
-      <c r="C181" s="13" t="s">
-        <v>244</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>5</v>
@@ -5074,10 +5062,10 @@
         <v>23</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>5</v>
@@ -5093,10 +5081,10 @@
         <v>23</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C183" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>5</v>
@@ -5112,10 +5100,10 @@
         <v>23</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D184" s="5" t="s">
         <v>5</v>
@@ -5131,10 +5119,10 @@
         <v>23</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D185" s="5" t="s">
         <v>5</v>
@@ -5150,10 +5138,10 @@
         <v>23</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>5</v>
@@ -5169,10 +5157,10 @@
         <v>23</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>5</v>
@@ -5188,10 +5176,10 @@
         <v>23</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>5</v>
@@ -5207,10 +5195,10 @@
         <v>23</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>5</v>
@@ -5226,10 +5214,10 @@
         <v>23</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>19</v>
@@ -5237,7 +5225,7 @@
       <c r="E190" s="12"/>
       <c r="F190" s="12"/>
       <c r="G190" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
@@ -5245,10 +5233,10 @@
         <v>23</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>19</v>
@@ -5264,10 +5252,10 @@
         <v>23</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>19</v>
@@ -5275,7 +5263,7 @@
       <c r="E192" s="12"/>
       <c r="F192" s="12"/>
       <c r="G192" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
@@ -5283,10 +5271,10 @@
         <v>23</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D193" s="12" t="s">
         <v>63</v>
@@ -5302,10 +5290,10 @@
         <v>23</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>19</v>
@@ -5313,7 +5301,7 @@
       <c r="E194" s="12"/>
       <c r="F194" s="12"/>
       <c r="G194" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
@@ -5321,10 +5309,10 @@
         <v>23</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>19</v>
@@ -5332,45 +5320,45 @@
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B196" s="12" t="s">
-        <v>243</v>
+      <c r="B196" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>263</v>
+        <v>120</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
-      <c r="G196" s="5" t="s">
-        <v>241</v>
+      <c r="G196" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B197" s="12" t="s">
-        <v>243</v>
+      <c r="B197" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>264</v>
+        <v>121</v>
       </c>
       <c r="D197" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
-      <c r="G197" s="5" t="s">
-        <v>250</v>
+      <c r="G197" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
@@ -5381,7 +5369,7 @@
         <v>119</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="D198" s="5" t="s">
         <v>19</v>
@@ -5389,7 +5377,7 @@
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
       <c r="G198" s="9" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
@@ -5400,15 +5388,15 @@
         <v>119</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D199" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
-      <c r="G199" s="9" t="s">
-        <v>128</v>
+      <c r="G199" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
@@ -5419,15 +5407,15 @@
         <v>119</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="D200" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
-      <c r="G200" s="9" t="s">
-        <v>84</v>
+      <c r="G200" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
@@ -5438,7 +5426,7 @@
         <v>119</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>19</v>
@@ -5446,7 +5434,7 @@
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
@@ -5457,15 +5445,15 @@
         <v>119</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
-      <c r="G202" s="5" t="s">
-        <v>130</v>
+      <c r="G202" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
@@ -5476,15 +5464,19 @@
         <v>119</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E203" s="5"/>
-      <c r="F203" s="5"/>
-      <c r="G203" s="5" t="s">
-        <v>131</v>
+        <v>5</v>
+      </c>
+      <c r="E203" s="5">
+        <v>0</v>
+      </c>
+      <c r="F203" s="5">
+        <v>10</v>
+      </c>
+      <c r="G203" s="5">
+        <v>0.4</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
@@ -5492,18 +5484,18 @@
         <v>23</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
-      <c r="G204" s="5" t="b">
-        <v>0</v>
+      <c r="G204" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
@@ -5511,22 +5503,18 @@
         <v>23</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E205" s="5">
-        <v>0</v>
-      </c>
-      <c r="F205" s="5">
-        <v>10</v>
-      </c>
-      <c r="G205" s="5">
-        <v>0.4</v>
+        <v>19</v>
+      </c>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
@@ -5537,15 +5525,15 @@
         <v>132</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
-      <c r="G206" s="9" t="s">
-        <v>134</v>
+      <c r="G206" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
@@ -5553,10 +5541,10 @@
         <v>23</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D207" s="5" t="s">
         <v>19</v>
@@ -5564,7 +5552,7 @@
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
       <c r="G207" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
@@ -5572,18 +5560,18 @@
         <v>23</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
-      <c r="G208" s="5" t="b">
-        <v>0</v>
+      <c r="G208" s="9" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -5594,7 +5582,7 @@
         <v>135</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="D209" s="5" t="s">
         <v>19</v>
@@ -5602,7 +5590,7 @@
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
       <c r="G209" s="9" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -5613,7 +5601,7 @@
         <v>135</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="D210" s="5" t="s">
         <v>19</v>
@@ -5621,7 +5609,7 @@
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
       <c r="G210" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -5632,7 +5620,7 @@
         <v>135</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D211" s="5" t="s">
         <v>19</v>
@@ -5640,45 +5628,49 @@
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
       <c r="G211" s="9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E212" s="5"/>
-      <c r="F212" s="5"/>
-      <c r="G212" s="9" t="s">
-        <v>141</v>
+        <v>5</v>
+      </c>
+      <c r="E212" s="5">
+        <v>0</v>
+      </c>
+      <c r="F212" s="5">
+        <v>2</v>
+      </c>
+      <c r="G212" s="5">
+        <v>0.75</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
-      <c r="G213" s="9" t="s">
-        <v>142</v>
+      <c r="G213" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
@@ -5689,19 +5681,15 @@
         <v>212</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E214" s="5">
-        <v>0</v>
-      </c>
-      <c r="F214" s="5">
-        <v>2</v>
-      </c>
-      <c r="G214" s="5">
-        <v>0.75</v>
+        <v>63</v>
+      </c>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
@@ -5712,7 +5700,7 @@
         <v>212</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D215" s="5" t="s">
         <v>63</v>
@@ -5731,7 +5719,7 @@
         <v>212</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D216" s="5" t="s">
         <v>63</v>
@@ -5750,14 +5738,18 @@
         <v>212</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E217" s="5"/>
-      <c r="F217" s="5"/>
-      <c r="G217" s="5" t="b">
+        <v>20</v>
+      </c>
+      <c r="E217" s="5">
+        <v>0</v>
+      </c>
+      <c r="F217" s="5">
+        <v>2</v>
+      </c>
+      <c r="G217" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5769,14 +5761,18 @@
         <v>212</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E218" s="5"/>
-      <c r="F218" s="5"/>
-      <c r="G218" s="5" t="b">
+        <v>20</v>
+      </c>
+      <c r="E218" s="5">
+        <v>0</v>
+      </c>
+      <c r="F218" s="5">
+        <v>2</v>
+      </c>
+      <c r="G218" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5788,19 +5784,15 @@
         <v>212</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E219" s="5">
-        <v>0</v>
-      </c>
-      <c r="F219" s="5">
-        <v>2</v>
-      </c>
-      <c r="G219" s="5">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
@@ -5811,49 +5803,53 @@
         <v>212</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>30</v>
+        <v>236</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E220" s="5">
         <v>0</v>
       </c>
       <c r="F220" s="5">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G220" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>212</v>
+        <v>65</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E221" s="5"/>
-      <c r="F221" s="5"/>
-      <c r="G221" s="5" t="b">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E221" s="5">
+        <v>0</v>
+      </c>
+      <c r="F221" s="5">
+        <v>10</v>
+      </c>
+      <c r="G221" s="5">
+        <v>0.75</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>212</v>
+        <v>65</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>236</v>
+        <v>32</v>
       </c>
       <c r="D222" s="5" t="s">
         <v>5</v>
@@ -5862,10 +5858,10 @@
         <v>0</v>
       </c>
       <c r="F222" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G222" s="5">
-        <v>10</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
@@ -5876,7 +5872,7 @@
         <v>65</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>5</v>
@@ -5885,10 +5881,10 @@
         <v>0</v>
       </c>
       <c r="F223" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G223" s="5">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -5899,7 +5895,7 @@
         <v>65</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D224" s="5" t="s">
         <v>5</v>
@@ -5908,10 +5904,10 @@
         <v>0</v>
       </c>
       <c r="F224" s="5">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G224" s="5">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -5922,7 +5918,7 @@
         <v>65</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D225" s="5" t="s">
         <v>5</v>
@@ -5931,10 +5927,10 @@
         <v>0</v>
       </c>
       <c r="F225" s="5">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G225" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
@@ -5945,7 +5941,7 @@
         <v>65</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D226" s="5" t="s">
         <v>5</v>
@@ -5954,10 +5950,10 @@
         <v>0</v>
       </c>
       <c r="F226" s="5">
+        <v>200</v>
+      </c>
+      <c r="G226" s="5">
         <v>50</v>
-      </c>
-      <c r="G226" s="5">
-        <v>5.5</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
@@ -5968,7 +5964,7 @@
         <v>65</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D227" s="5" t="s">
         <v>5</v>
@@ -5977,10 +5973,10 @@
         <v>0</v>
       </c>
       <c r="F227" s="5">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G227" s="5">
-        <v>0.1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
@@ -5991,7 +5987,7 @@
         <v>65</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D228" s="5" t="s">
         <v>5</v>
@@ -6000,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="F228" s="5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G228" s="5">
         <v>50</v>
@@ -6014,7 +6010,7 @@
         <v>65</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D229" s="5" t="s">
         <v>5</v>
@@ -6023,10 +6019,10 @@
         <v>0</v>
       </c>
       <c r="F229" s="5">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G229" s="5">
-        <v>200</v>
+        <v>15</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
@@ -6037,7 +6033,7 @@
         <v>65</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D230" s="5" t="s">
         <v>5</v>
@@ -6049,7 +6045,7 @@
         <v>100</v>
       </c>
       <c r="G230" s="5">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -6060,7 +6056,7 @@
         <v>65</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D231" s="5" t="s">
         <v>5</v>
@@ -6069,10 +6065,10 @@
         <v>0</v>
       </c>
       <c r="F231" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G231" s="5">
-        <v>15</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
@@ -6083,7 +6079,7 @@
         <v>65</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D232" s="5" t="s">
         <v>5</v>
@@ -6092,10 +6088,10 @@
         <v>0</v>
       </c>
       <c r="F232" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G232" s="5">
-        <v>5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
@@ -6106,7 +6102,7 @@
         <v>65</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D233" s="5" t="s">
         <v>5</v>
@@ -6118,7 +6114,7 @@
         <v>10</v>
       </c>
       <c r="G233" s="5">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
@@ -6129,7 +6125,7 @@
         <v>65</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D234" s="5" t="s">
         <v>5</v>
@@ -6141,7 +6137,7 @@
         <v>10</v>
       </c>
       <c r="G234" s="5">
-        <v>0.45</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
@@ -6152,7 +6148,7 @@
         <v>65</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D235" s="5" t="s">
         <v>5</v>
@@ -6164,7 +6160,7 @@
         <v>10</v>
       </c>
       <c r="G235" s="5">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
@@ -6175,19 +6171,15 @@
         <v>65</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E236" s="5">
-        <v>0</v>
-      </c>
-      <c r="F236" s="5">
-        <v>10</v>
-      </c>
-      <c r="G236" s="5">
-        <v>0.1</v>
+        <v>63</v>
+      </c>
+      <c r="E236" s="5"/>
+      <c r="F236" s="5"/>
+      <c r="G236" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
@@ -6198,19 +6190,15 @@
         <v>65</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E237" s="5">
-        <v>0</v>
-      </c>
-      <c r="F237" s="5">
-        <v>10</v>
-      </c>
-      <c r="G237" s="5">
-        <v>0.1</v>
+        <v>63</v>
+      </c>
+      <c r="E237" s="5"/>
+      <c r="F237" s="5"/>
+      <c r="G237" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
@@ -6221,7 +6209,7 @@
         <v>65</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D238" s="5" t="s">
         <v>63</v>
@@ -6240,7 +6228,7 @@
         <v>65</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D239" s="5" t="s">
         <v>63</v>
@@ -6248,7 +6236,7 @@
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
       <c r="G239" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
@@ -6259,7 +6247,7 @@
         <v>65</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D240" s="5" t="s">
         <v>63</v>
@@ -6278,15 +6266,19 @@
         <v>65</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E241" s="5"/>
-      <c r="F241" s="5"/>
-      <c r="G241" s="5" t="b">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E241" s="5">
+        <v>0</v>
+      </c>
+      <c r="F241" s="5">
+        <v>10</v>
+      </c>
+      <c r="G241" s="5">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
@@ -6297,15 +6289,19 @@
         <v>65</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E242" s="5"/>
-      <c r="F242" s="5"/>
-      <c r="G242" s="5" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E242" s="5">
+        <v>0</v>
+      </c>
+      <c r="F242" s="5">
+        <v>10</v>
+      </c>
+      <c r="G242" s="5">
+        <v>4.8</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
@@ -6316,7 +6312,7 @@
         <v>65</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D243" s="5" t="s">
         <v>5</v>
@@ -6328,7 +6324,7 @@
         <v>10</v>
       </c>
       <c r="G243" s="5">
-        <v>2.2000000000000002</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
@@ -6339,7 +6335,7 @@
         <v>65</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D244" s="5" t="s">
         <v>5</v>
@@ -6351,7 +6347,7 @@
         <v>10</v>
       </c>
       <c r="G244" s="5">
-        <v>4.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
@@ -6362,7 +6358,7 @@
         <v>65</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D245" s="5" t="s">
         <v>5</v>
@@ -6374,7 +6370,7 @@
         <v>10</v>
       </c>
       <c r="G245" s="5">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
@@ -6385,7 +6381,7 @@
         <v>65</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D246" s="5" t="s">
         <v>5</v>
@@ -6397,7 +6393,7 @@
         <v>10</v>
       </c>
       <c r="G246" s="5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
@@ -6408,7 +6404,7 @@
         <v>65</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D247" s="5" t="s">
         <v>5</v>
@@ -6420,7 +6416,7 @@
         <v>10</v>
       </c>
       <c r="G247" s="5">
-        <v>0.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
@@ -6431,7 +6427,7 @@
         <v>65</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D248" s="5" t="s">
         <v>5</v>
@@ -6443,7 +6439,7 @@
         <v>10</v>
       </c>
       <c r="G248" s="5">
-        <v>1.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
@@ -6454,19 +6450,19 @@
         <v>65</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D249" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E249" s="5">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F249" s="5">
         <v>10</v>
       </c>
       <c r="G249" s="5">
-        <v>3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
@@ -6477,7 +6473,7 @@
         <v>65</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D250" s="5" t="s">
         <v>5</v>
@@ -6489,7 +6485,7 @@
         <v>10</v>
       </c>
       <c r="G250" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
@@ -6500,7 +6496,7 @@
         <v>65</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D251" s="5" t="s">
         <v>5</v>
@@ -6509,10 +6505,10 @@
         <v>-10</v>
       </c>
       <c r="F251" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G251" s="5">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
@@ -6523,19 +6519,19 @@
         <v>65</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E252" s="5">
         <v>0</v>
       </c>
       <c r="F252" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G252" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
@@ -6543,22 +6539,18 @@
         <v>214</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E253" s="5">
-        <v>-10</v>
-      </c>
-      <c r="F253" s="5">
-        <v>0</v>
-      </c>
-      <c r="G253" s="5">
-        <v>-3</v>
+        <v>63</v>
+      </c>
+      <c r="E253" s="5"/>
+      <c r="F253" s="5"/>
+      <c r="G253" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
@@ -6566,21 +6558,17 @@
         <v>214</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E254" s="5">
-        <v>0</v>
-      </c>
-      <c r="F254" s="5">
-        <v>2</v>
-      </c>
-      <c r="G254" s="5">
+        <v>63</v>
+      </c>
+      <c r="E254" s="5"/>
+      <c r="F254" s="5"/>
+      <c r="G254" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6589,10 +6577,10 @@
         <v>214</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="D255" s="5" t="s">
         <v>63</v>
@@ -6608,18 +6596,22 @@
         <v>214</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E256" s="5"/>
-      <c r="F256" s="5"/>
-      <c r="G256" s="5" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E256" s="5">
+        <v>0</v>
+      </c>
+      <c r="F256" s="5">
+        <v>10</v>
+      </c>
+      <c r="G256" s="5">
+        <v>0.1</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
@@ -6630,26 +6622,30 @@
         <v>143</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E257" s="5"/>
-      <c r="F257" s="5"/>
-      <c r="G257" s="5" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E257" s="5">
+        <v>0</v>
+      </c>
+      <c r="F257" s="5">
+        <v>10</v>
+      </c>
+      <c r="G257" s="5">
+        <v>0.1</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B258" s="2" t="s">
-        <v>143</v>
+      <c r="B258" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="D258" s="5" t="s">
         <v>5</v>
@@ -6658,10 +6654,10 @@
         <v>0</v>
       </c>
       <c r="F258" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G258" s="5">
-        <v>0.1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
@@ -6669,33 +6665,33 @@
         <v>214</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>143</v>
+        <v>211</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E259" s="5">
         <v>0</v>
       </c>
       <c r="F259" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G259" s="5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B260" s="4" t="s">
-        <v>145</v>
+      <c r="B260" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D260" s="5" t="s">
         <v>5</v>
@@ -6707,7 +6703,7 @@
         <v>100</v>
       </c>
       <c r="G260" s="5">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
@@ -6718,19 +6714,19 @@
         <v>211</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E261" s="5">
         <v>0</v>
       </c>
       <c r="F261" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G261" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -6741,7 +6737,7 @@
         <v>211</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D262" s="5" t="s">
         <v>5</v>
@@ -6750,10 +6746,10 @@
         <v>0</v>
       </c>
       <c r="F262" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G262" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
@@ -6764,7 +6760,7 @@
         <v>211</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D263" s="5" t="s">
         <v>5</v>
@@ -6776,7 +6772,7 @@
         <v>10</v>
       </c>
       <c r="G263" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
@@ -6787,7 +6783,7 @@
         <v>211</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D264" s="5" t="s">
         <v>5</v>
@@ -6799,7 +6795,7 @@
         <v>10</v>
       </c>
       <c r="G264" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
@@ -6810,7 +6806,7 @@
         <v>211</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D265" s="5" t="s">
         <v>5</v>
@@ -6822,60 +6818,52 @@
         <v>10</v>
       </c>
       <c r="G265" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D266" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E266" s="5">
-        <v>0</v>
-      </c>
-      <c r="F266" s="5">
-        <v>10</v>
-      </c>
-      <c r="G266" s="5">
-        <v>0</v>
+        <v>220</v>
+      </c>
+      <c r="D266" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E266" s="7"/>
+      <c r="F266" s="7"/>
+      <c r="G266" s="11" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>211</v>
+        <v>228</v>
+      </c>
+      <c r="B267" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D267" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E267" s="5">
-        <v>0</v>
-      </c>
-      <c r="F267" s="5">
-        <v>10</v>
-      </c>
-      <c r="G267" s="5">
-        <v>0</v>
+        <v>230</v>
+      </c>
+      <c r="D267" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E267" s="7"/>
+      <c r="F267" s="7"/>
+      <c r="G267" s="6" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B268" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B268" s="7" t="s">
         <v>226</v>
       </c>
       <c r="C268" s="4" t="s">
@@ -6884,45 +6872,7 @@
       <c r="D268" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E268" s="7"/>
-      <c r="F268" s="7"/>
-      <c r="G268" s="11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A269" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B269" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C269" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D269" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E269" s="7"/>
-      <c r="F269" s="7"/>
-      <c r="G269" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A270" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B270" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C270" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D270" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G270" t="s">
+      <c r="G268" t="s">
         <v>232</v>
       </c>
     </row>

--- a/AD-EYE/TA/Configurations/AutowareConfigTemplate.xlsx
+++ b/AD-EYE/TA/Configurations/AutowareConfigTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adeye\AD-EYE_Core\AD-EYE\TA\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C9C839-950E-4556-9E8A-F143BEB6E9E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745874DA-BAE0-45B9-A8B0-DA705745E792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15996" yWindow="1272" windowWidth="14724" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1138,8 +1138,8 @@
   </sheetPr>
   <dimension ref="A1:G239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G149" sqref="G149"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G164" sqref="G164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4128,7 +4128,7 @@
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -4151,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="G142" s="5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -4296,7 +4296,7 @@
         <v>10</v>
       </c>
       <c r="G149" s="5">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -4586,7 +4586,7 @@
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
       <c r="G163" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">

--- a/AD-EYE/TA/Configurations/AutowareConfigTemplate.xlsx
+++ b/AD-EYE/TA/Configurations/AutowareConfigTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adeye\AD-EYE_Core\AD-EYE\TA\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745874DA-BAE0-45B9-A8B0-DA705745E792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B46230-6EAF-498E-9759-8B1B5FAEAB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1138,21 +1138,21 @@
   </sheetPr>
   <dimension ref="A1:G239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G164" sqref="G164"/>
+    <sheetView tabSelected="1" topLeftCell="A200" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G223" sqref="G223"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" customWidth="1"/>
-    <col min="3" max="3" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="1" customWidth="1"/>
-    <col min="7" max="7" width="134.6640625" customWidth="1"/>
+    <col min="7" max="7" width="134.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>215</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>224</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>224</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>224</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>224</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>224</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>224</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>224</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>224</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>224</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>23</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>23</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>23</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>23</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>23</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>23</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>23</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>23</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>-0.37059999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>23</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>0.48299999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>23</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>-0.62939999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>23</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>0.48299999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>23</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>23</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>23</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>23</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>23</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>23</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>23</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>23</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>23</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>23</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>23</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>23</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>23</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>23</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>23</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>23</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>23</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>23</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>23</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>23</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>23</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>23</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>23</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>23</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>23</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>23</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>23</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>23</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>23</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>23</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>23</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>23</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>23</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>23</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>23</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>23</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>23</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>23</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>23</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>23</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>23</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>23</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>23</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>23</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>23</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>23</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>23</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>23</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>23</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>23</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>23</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>23</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>23</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>23</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>23</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>23</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>23</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>23</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>23</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>23</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>23</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>23</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>23</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>23</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>23</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>23</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>23</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>23</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>23</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>23</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>23</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>23</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>23</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>23</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>23</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>23</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>23</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>23</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>23</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>23</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>23</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>23</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>23</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>23</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>23</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>23</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>23</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>23</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>23</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>23</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>23</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>23</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>23</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>23</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>23</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>23</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>23</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>23</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>23</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>23</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>23</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>23</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>23</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>23</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>23</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>23</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>23</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>23</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>23</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>23</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>23</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>23</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>23</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>23</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>23</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>23</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>23</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>23</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>23</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>23</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>23</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>23</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>23</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>23</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>23</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>23</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>23</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>23</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>23</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>23</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>23</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>23</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>23</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>23</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>213</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>213</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>213</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>213</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>213</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>213</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>213</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>213</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>213</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>214</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>214</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>214</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>214</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>214</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>214</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>214</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>214</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>214</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>214</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>214</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>214</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>214</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>214</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>214</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>214</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>214</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>214</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>214</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>214</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>214</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>214</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>214</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>214</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>214</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>214</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>214</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>214</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>214</v>
       </c>
@@ -5808,10 +5808,10 @@
         <v>10</v>
       </c>
       <c r="G221" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>214</v>
       </c>
@@ -5831,10 +5831,10 @@
         <v>0</v>
       </c>
       <c r="G222" s="5">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>214</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>214</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>214</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>214</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>214</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>214</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>214</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>214</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>214</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>214</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>214</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>214</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>214</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>214</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>226</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>228</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>228</v>
       </c>

--- a/AD-EYE/TA/Configurations/AutowareConfigTemplate.xlsx
+++ b/AD-EYE/TA/Configurations/AutowareConfigTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adeye\AD-EYE_Core\AD-EYE\TA\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B46230-6EAF-498E-9759-8B1B5FAEAB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FDDE17-A06F-42D7-9B26-D0B498AB06C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1138,8 +1138,8 @@
   </sheetPr>
   <dimension ref="A1:G239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G223" sqref="G223"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4109,7 +4109,7 @@
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">

--- a/AD-EYE/TA/Configurations/AutowareConfigTemplate.xlsx
+++ b/AD-EYE/TA/Configurations/AutowareConfigTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adeye\AD-EYE_Core\AD-EYE\TA\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FDDE17-A06F-42D7-9B26-D0B498AB06C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC759D2F-0F27-453F-8F2E-07CC65D78073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1138,8 +1138,8 @@
   </sheetPr>
   <dimension ref="A1:G239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G141" sqref="G141"/>
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G214" sqref="G214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5460,7 +5460,7 @@
         <v>10</v>
       </c>
       <c r="G205" s="5">
-        <v>0.1</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -5601,7 +5601,7 @@
         <v>10</v>
       </c>
       <c r="G212" s="5">
-        <v>2.2000000000000002</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -5624,7 +5624,7 @@
         <v>10</v>
       </c>
       <c r="G213" s="5">
-        <v>4.8</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">

--- a/AD-EYE/TA/Configurations/AutowareConfigTemplate.xlsx
+++ b/AD-EYE/TA/Configurations/AutowareConfigTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adeye\AD-EYE_Core\AD-EYE\TA\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682B2F65-7FFC-4077-9F4B-D4A1EC4859BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF037F6-FD4F-4F27-91A1-8E5D3FC03CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="263">
   <si>
     <t>tf_x</t>
   </si>
@@ -445,18 +445,9 @@
     <t>ams_light_src</t>
   </si>
   <si>
-    <t>/tl/image_raw</t>
-  </si>
-  <si>
     <t>/light_color</t>
   </si>
   <si>
-    <t>/camera_light_color</t>
-  </si>
-  <si>
-    <t>/ams_light_color</t>
-  </si>
-  <si>
     <t>op_trajectory_evaluator</t>
   </si>
   <si>
@@ -763,9 +754,6 @@
     <t>gate_probability</t>
   </si>
   <si>
-    <t>/detection/lidar_detector/objects</t>
-  </si>
-  <si>
     <t>use_sukf</t>
   </si>
   <si>
@@ -809,6 +797,24 @@
   </si>
   <si>
     <t>lane_frame</t>
+  </si>
+  <si>
+    <t>/detection/lidar/detected_objects</t>
+  </si>
+  <si>
+    <t>/detection/lidar/tracked_objects</t>
+  </si>
+  <si>
+    <t>/detection/tl_camera/camera_info</t>
+  </si>
+  <si>
+    <t>/sensor/tl/image_raw</t>
+  </si>
+  <si>
+    <t>camera_light_color</t>
+  </si>
+  <si>
+    <t>ams_light_color</t>
   </si>
 </sst>
 </file>
@@ -1206,10 +1212,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G268"/>
+  <dimension ref="A1:G267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B165" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D200" sqref="D200"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1227,33 +1233,33 @@
         <v>6</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>20</v>
@@ -1266,13 +1272,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>215</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>218</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>19</v>
@@ -1280,7 +1286,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1288,7 +1294,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -1311,7 +1317,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>66</v>
@@ -1334,7 +1340,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>0</v>
@@ -1357,7 +1363,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>1</v>
@@ -1380,7 +1386,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
@@ -1403,10 +1409,10 @@
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>5</v>
@@ -1426,7 +1432,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>3</v>
@@ -1449,7 +1455,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -1471,19 +1477,23 @@
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>221</v>
+      <c r="B12" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>222</v>
+        <v>7</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>223</v>
+        <v>5</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1491,10 +1501,10 @@
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>5</v>
@@ -1503,33 +1513,33 @@
         <v>0</v>
       </c>
       <c r="F13" s="5">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="G13" s="5">
-        <v>0.2</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>208</v>
+      <c r="B14" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E14" s="5">
         <v>0</v>
       </c>
       <c r="F14" s="5">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="G14" s="5">
-        <v>200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1537,22 +1547,18 @@
         <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>3</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1560,18 +1566,18 @@
         <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5">
-        <v>1</v>
+      <c r="G16" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1579,10 +1585,10 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>63</v>
@@ -1598,10 +1604,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>63</v>
@@ -1617,18 +1623,18 @@
         <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="5" t="b">
-        <v>0</v>
+      <c r="G19" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1636,18 +1642,22 @@
         <v>22</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
-        <v>67</v>
+        <v>20</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1655,22 +1665,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5">
-        <v>1</v>
-      </c>
-      <c r="G21" s="5">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1678,18 +1684,18 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
-        <v>68</v>
+      <c r="G22" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1697,10 +1703,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>63</v>
@@ -1708,7 +1714,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1716,10 +1722,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>63</v>
@@ -1732,32 +1738,36 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5" t="b">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E25" s="5">
+        <v>-10</v>
+      </c>
+      <c r="F25" s="5">
+        <v>10</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.6</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>5</v>
@@ -1769,18 +1779,18 @@
         <v>10</v>
       </c>
       <c r="G26" s="5">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>5</v>
@@ -1792,18 +1802,18 @@
         <v>10</v>
       </c>
       <c r="G27" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>2</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>5</v>
@@ -1815,18 +1825,18 @@
         <v>10</v>
       </c>
       <c r="G28" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>227</v>
+        <v>3</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>5</v>
@@ -1843,13 +1853,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>5</v>
@@ -1866,90 +1876,94 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="5">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F31" s="5">
         <v>10</v>
       </c>
-      <c r="G31" s="5">
-        <v>0</v>
+      <c r="G31" s="5" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>222</v>
+        <v>66</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5" t="s">
-        <v>223</v>
+        <v>5</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>300</v>
+      </c>
+      <c r="G32" s="5">
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="5">
-        <v>0</v>
-      </c>
-      <c r="F33" s="5">
-        <v>10</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>225</v>
+      <c r="A33" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="12">
+        <v>-10</v>
+      </c>
+      <c r="F33" s="12">
+        <v>10</v>
+      </c>
+      <c r="G33" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="5">
-        <v>0</v>
-      </c>
-      <c r="F34" s="5">
-        <v>300</v>
-      </c>
-      <c r="G34" s="5">
-        <v>200</v>
+      <c r="A34" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="12">
+        <v>-10</v>
+      </c>
+      <c r="F34" s="12">
+        <v>10</v>
+      </c>
+      <c r="G34" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1957,10 +1971,10 @@
         <v>23</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>5</v>
@@ -1972,7 +1986,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="12">
-        <v>2</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1980,10 +1994,10 @@
         <v>23</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>5</v>
@@ -1995,7 +2009,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="12">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2003,10 +2017,10 @@
         <v>23</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>5</v>
@@ -2018,7 +2032,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="12">
-        <v>1.32</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2026,10 +2040,10 @@
         <v>23</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>5</v>
@@ -2049,10 +2063,10 @@
         <v>23</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>5</v>
@@ -2072,10 +2086,10 @@
         <v>23</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>5</v>
@@ -2087,7 +2101,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="12">
-        <v>-0.5</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2095,10 +2109,10 @@
         <v>23</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>5</v>
@@ -2110,7 +2124,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2118,10 +2132,10 @@
         <v>23</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>5</v>
@@ -2133,7 +2147,7 @@
         <v>10</v>
       </c>
       <c r="G42" s="12">
-        <v>-0.95</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2141,10 +2155,10 @@
         <v>23</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>5</v>
@@ -2156,7 +2170,7 @@
         <v>10</v>
       </c>
       <c r="G43" s="12">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2164,10 +2178,10 @@
         <v>23</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>5</v>
@@ -2179,7 +2193,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="12">
-        <v>1.32</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2187,10 +2201,10 @@
         <v>23</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>5</v>
@@ -2202,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="G45" s="12">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2210,10 +2224,10 @@
         <v>23</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>5</v>
@@ -2225,53 +2239,53 @@
         <v>10</v>
       </c>
       <c r="G46" s="12">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="12">
+      <c r="A47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="5">
         <v>-10</v>
       </c>
-      <c r="F47" s="12">
-        <v>10</v>
-      </c>
-      <c r="G47" s="12">
-        <v>0.5</v>
+      <c r="F47" s="5">
+        <v>10</v>
+      </c>
+      <c r="G47" s="5">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="12">
+      <c r="A48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="5">
         <v>-10</v>
       </c>
-      <c r="F48" s="12">
-        <v>10</v>
-      </c>
-      <c r="G48" s="12">
-        <v>0.5</v>
+      <c r="F48" s="5">
+        <v>10</v>
+      </c>
+      <c r="G48" s="5">
+        <v>-0.7</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2279,10 +2293,10 @@
         <v>23</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>5</v>
@@ -2294,7 +2308,7 @@
         <v>10</v>
       </c>
       <c r="G49" s="5">
-        <v>1.1000000000000001</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2302,10 +2316,10 @@
         <v>23</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>5</v>
@@ -2317,7 +2331,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="5">
-        <v>-0.7</v>
+        <v>-0.37059999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -2325,10 +2339,10 @@
         <v>23</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>5</v>
@@ -2340,7 +2354,7 @@
         <v>10</v>
       </c>
       <c r="G51" s="5">
-        <v>1.8</v>
+        <v>0.48299999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2348,10 +2362,10 @@
         <v>23</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>5</v>
@@ -2363,7 +2377,7 @@
         <v>10</v>
       </c>
       <c r="G52" s="5">
-        <v>-0.37059999999999998</v>
+        <v>-0.62939999999999996</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -2371,10 +2385,10 @@
         <v>23</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>5</v>
@@ -2394,10 +2408,10 @@
         <v>23</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>5</v>
@@ -2409,7 +2423,7 @@
         <v>10</v>
       </c>
       <c r="G54" s="5">
-        <v>-0.62939999999999996</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2417,10 +2431,10 @@
         <v>23</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>5</v>
@@ -2432,7 +2446,7 @@
         <v>10</v>
       </c>
       <c r="G55" s="5">
-        <v>0.48299999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -2440,10 +2454,10 @@
         <v>23</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>5</v>
@@ -2455,7 +2469,7 @@
         <v>10</v>
       </c>
       <c r="G56" s="5">
-        <v>3.75</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2463,10 +2477,10 @@
         <v>23</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>5</v>
@@ -2486,10 +2500,10 @@
         <v>23</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>5</v>
@@ -2501,7 +2515,7 @@
         <v>10</v>
       </c>
       <c r="G58" s="5">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -2509,10 +2523,10 @@
         <v>23</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>5</v>
@@ -2532,10 +2546,10 @@
         <v>23</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>5</v>
@@ -2547,53 +2561,45 @@
         <v>10</v>
       </c>
       <c r="G60" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>239</v>
+      <c r="B61" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" s="5">
-        <v>-10</v>
-      </c>
-      <c r="F61" s="5">
-        <v>10</v>
-      </c>
-      <c r="G61" s="5">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>239</v>
+      <c r="B62" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="5">
-        <v>-10</v>
-      </c>
-      <c r="F62" s="5">
-        <v>10</v>
-      </c>
-      <c r="G62" s="5">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2601,10 +2607,10 @@
         <v>23</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>19</v>
@@ -2612,7 +2618,7 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2620,18 +2626,20 @@
         <v>23</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0</v>
+      </c>
       <c r="F64" s="5"/>
-      <c r="G64" s="4" t="s">
-        <v>84</v>
+      <c r="G64" s="4">
+        <v>720</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2639,18 +2647,20 @@
         <v>23</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0</v>
+      </c>
       <c r="F65" s="5"/>
-      <c r="G65" s="4" t="s">
-        <v>198</v>
+      <c r="G65" s="4">
+        <v>960</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -2658,20 +2668,20 @@
         <v>23</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E66" s="5">
         <v>0</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="4">
-        <v>720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -2679,20 +2689,20 @@
         <v>23</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E67" s="5">
         <v>0</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="4">
-        <v>960</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -2700,10 +2710,10 @@
         <v>23</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>5</v>
@@ -2721,10 +2731,10 @@
         <v>23</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>5</v>
@@ -2742,7 +2752,7 @@
         <v>23</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>162</v>
@@ -2763,10 +2773,10 @@
         <v>23</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>5</v>
@@ -2776,7 +2786,7 @@
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="4">
-        <v>0</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -2784,10 +2794,10 @@
         <v>23</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>5</v>
@@ -2805,10 +2815,10 @@
         <v>23</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>5</v>
@@ -2818,7 +2828,7 @@
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="4">
-        <v>1125</v>
+        <v>480</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -2826,10 +2836,10 @@
         <v>23</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>5</v>
@@ -2847,10 +2857,10 @@
         <v>23</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>5</v>
@@ -2860,7 +2870,7 @@
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="4">
-        <v>480</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -2868,10 +2878,10 @@
         <v>23</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>5</v>
@@ -2881,7 +2891,7 @@
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="4">
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -2889,10 +2899,10 @@
         <v>23</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>5</v>
@@ -2902,7 +2912,7 @@
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="4">
-        <v>1125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -2910,10 +2920,10 @@
         <v>23</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>5</v>
@@ -2923,7 +2933,7 @@
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="4">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -2931,10 +2941,10 @@
         <v>23</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>5</v>
@@ -2944,7 +2954,7 @@
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -2952,10 +2962,10 @@
         <v>23</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>5</v>
@@ -2965,7 +2975,7 @@
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -2973,10 +2983,10 @@
         <v>23</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>5</v>
@@ -2986,7 +2996,7 @@
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -2994,10 +3004,10 @@
         <v>23</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>5</v>
@@ -3007,7 +3017,7 @@
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -3015,10 +3025,10 @@
         <v>23</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>5</v>
@@ -3036,10 +3046,10 @@
         <v>23</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>5</v>
@@ -3049,7 +3059,7 @@
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -3057,10 +3067,10 @@
         <v>23</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>5</v>
@@ -3078,10 +3088,10 @@
         <v>23</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>5</v>
@@ -3091,7 +3101,7 @@
       </c>
       <c r="F86" s="5"/>
       <c r="G86" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -3099,10 +3109,10 @@
         <v>23</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>5</v>
@@ -3120,10 +3130,10 @@
         <v>23</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>5</v>
@@ -3133,7 +3143,7 @@
       </c>
       <c r="F88" s="5"/>
       <c r="G88" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -3141,10 +3151,10 @@
         <v>23</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>5</v>
@@ -3154,7 +3164,7 @@
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="4">
-        <v>0</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -3162,10 +3172,10 @@
         <v>23</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>5</v>
@@ -3175,7 +3185,7 @@
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -3183,10 +3193,10 @@
         <v>23</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>5</v>
@@ -3196,7 +3206,7 @@
       </c>
       <c r="F91" s="5"/>
       <c r="G91" s="4">
-        <v>1125</v>
+        <v>480</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -3204,10 +3214,10 @@
         <v>23</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>5</v>
@@ -3225,10 +3235,10 @@
         <v>23</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>5</v>
@@ -3238,7 +3248,7 @@
       </c>
       <c r="F93" s="5"/>
       <c r="G93" s="4">
-        <v>480</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -3246,10 +3256,10 @@
         <v>23</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>5</v>
@@ -3259,7 +3269,7 @@
       </c>
       <c r="F94" s="5"/>
       <c r="G94" s="4">
-        <v>0</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -3267,10 +3277,10 @@
         <v>23</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>5</v>
@@ -3280,7 +3290,7 @@
       </c>
       <c r="F95" s="5"/>
       <c r="G95" s="4">
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -3288,10 +3298,10 @@
         <v>23</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>5</v>
@@ -3301,7 +3311,7 @@
       </c>
       <c r="F96" s="5"/>
       <c r="G96" s="4">
-        <v>1125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -3309,10 +3319,10 @@
         <v>23</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>5</v>
@@ -3322,7 +3332,7 @@
       </c>
       <c r="F97" s="5"/>
       <c r="G97" s="4">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -3330,10 +3340,10 @@
         <v>23</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>5</v>
@@ -3351,10 +3361,10 @@
         <v>23</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>5</v>
@@ -3364,7 +3374,7 @@
       </c>
       <c r="F99" s="5"/>
       <c r="G99" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -3372,10 +3382,10 @@
         <v>23</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>5</v>
@@ -3393,20 +3403,18 @@
         <v>23</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="5">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E101" s="5"/>
       <c r="F101" s="5"/>
-      <c r="G101" s="4">
-        <v>1</v>
+      <c r="G101" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -3414,20 +3422,18 @@
         <v>23</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="5">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E102" s="5"/>
       <c r="F102" s="5"/>
-      <c r="G102" s="4">
-        <v>0</v>
+      <c r="G102" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -3435,10 +3441,10 @@
         <v>23</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>19</v>
@@ -3446,7 +3452,7 @@
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -3454,18 +3460,20 @@
         <v>23</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E104" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="E104" s="5">
+        <v>0</v>
+      </c>
       <c r="F104" s="5"/>
-      <c r="G104" s="4" t="s">
-        <v>200</v>
+      <c r="G104" s="4">
+        <v>720</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -3473,18 +3481,20 @@
         <v>23</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E105" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="E105" s="5">
+        <v>0</v>
+      </c>
       <c r="F105" s="5"/>
-      <c r="G105" s="4" t="s">
-        <v>201</v>
+      <c r="G105" s="4">
+        <v>960</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -3492,20 +3502,20 @@
         <v>23</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E106" s="5">
         <v>0</v>
       </c>
       <c r="F106" s="5"/>
       <c r="G106" s="4">
-        <v>720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -3513,20 +3523,20 @@
         <v>23</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E107" s="5">
         <v>0</v>
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="4">
-        <v>960</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -3534,10 +3544,10 @@
         <v>23</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>5</v>
@@ -3555,10 +3565,10 @@
         <v>23</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>5</v>
@@ -3576,7 +3586,7 @@
         <v>23</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>162</v>
@@ -3597,10 +3607,10 @@
         <v>23</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>5</v>
@@ -3610,7 +3620,7 @@
       </c>
       <c r="F111" s="5"/>
       <c r="G111" s="4">
-        <v>0</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -3618,10 +3628,10 @@
         <v>23</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>5</v>
@@ -3639,10 +3649,10 @@
         <v>23</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>5</v>
@@ -3652,7 +3662,7 @@
       </c>
       <c r="F113" s="5"/>
       <c r="G113" s="4">
-        <v>1125</v>
+        <v>480</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -3660,10 +3670,10 @@
         <v>23</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>5</v>
@@ -3681,10 +3691,10 @@
         <v>23</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>5</v>
@@ -3694,7 +3704,7 @@
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="4">
-        <v>480</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -3702,10 +3712,10 @@
         <v>23</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>5</v>
@@ -3715,7 +3725,7 @@
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="4">
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -3723,10 +3733,10 @@
         <v>23</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>5</v>
@@ -3736,7 +3746,7 @@
       </c>
       <c r="F117" s="5"/>
       <c r="G117" s="4">
-        <v>1125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -3744,10 +3754,10 @@
         <v>23</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>5</v>
@@ -3757,7 +3767,7 @@
       </c>
       <c r="F118" s="5"/>
       <c r="G118" s="4">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -3765,10 +3775,10 @@
         <v>23</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>5</v>
@@ -3778,7 +3788,7 @@
       </c>
       <c r="F119" s="5"/>
       <c r="G119" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -3786,10 +3796,10 @@
         <v>23</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>5</v>
@@ -3799,7 +3809,7 @@
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -3807,10 +3817,10 @@
         <v>23</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>5</v>
@@ -3820,7 +3830,7 @@
       </c>
       <c r="F121" s="5"/>
       <c r="G121" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -3828,10 +3838,10 @@
         <v>23</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>5</v>
@@ -3841,7 +3851,7 @@
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -3849,10 +3859,10 @@
         <v>23</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>5</v>
@@ -3870,10 +3880,10 @@
         <v>23</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>5</v>
@@ -3883,7 +3893,7 @@
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -3891,10 +3901,10 @@
         <v>23</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>5</v>
@@ -3912,10 +3922,10 @@
         <v>23</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>5</v>
@@ -3925,7 +3935,7 @@
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -3933,10 +3943,10 @@
         <v>23</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>5</v>
@@ -3954,10 +3964,10 @@
         <v>23</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>5</v>
@@ -3967,7 +3977,7 @@
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -3975,10 +3985,10 @@
         <v>23</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>5</v>
@@ -3988,7 +3998,7 @@
       </c>
       <c r="F129" s="5"/>
       <c r="G129" s="4">
-        <v>0</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
@@ -3996,10 +4006,10 @@
         <v>23</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>5</v>
@@ -4009,7 +4019,7 @@
       </c>
       <c r="F130" s="5"/>
       <c r="G130" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
@@ -4017,10 +4027,10 @@
         <v>23</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>5</v>
@@ -4030,7 +4040,7 @@
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="4">
-        <v>1125</v>
+        <v>480</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -4038,10 +4048,10 @@
         <v>23</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>5</v>
@@ -4059,10 +4069,10 @@
         <v>23</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>5</v>
@@ -4072,7 +4082,7 @@
       </c>
       <c r="F133" s="5"/>
       <c r="G133" s="4">
-        <v>480</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -4080,10 +4090,10 @@
         <v>23</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>5</v>
@@ -4093,7 +4103,7 @@
       </c>
       <c r="F134" s="5"/>
       <c r="G134" s="4">
-        <v>0</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -4101,10 +4111,10 @@
         <v>23</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>5</v>
@@ -4114,7 +4124,7 @@
       </c>
       <c r="F135" s="5"/>
       <c r="G135" s="4">
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -4122,10 +4132,10 @@
         <v>23</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>5</v>
@@ -4135,7 +4145,7 @@
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="4">
-        <v>1125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -4143,10 +4153,10 @@
         <v>23</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>5</v>
@@ -4156,7 +4166,7 @@
       </c>
       <c r="F137" s="5"/>
       <c r="G137" s="4">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -4164,10 +4174,10 @@
         <v>23</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>5</v>
@@ -4185,10 +4195,10 @@
         <v>23</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>5</v>
@@ -4198,7 +4208,7 @@
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -4206,10 +4216,10 @@
         <v>23</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>5</v>
@@ -4227,19 +4237,17 @@
         <v>23</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>194</v>
+        <v>73</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E141" s="5">
-        <v>0</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E141" s="5"/>
       <c r="F141" s="5"/>
-      <c r="G141" s="4">
+      <c r="G141" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4248,19 +4256,21 @@
         <v>23</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E142" s="5">
         <v>0</v>
       </c>
-      <c r="F142" s="5"/>
-      <c r="G142" s="4">
+      <c r="F142" s="5">
+        <v>3</v>
+      </c>
+      <c r="G142" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4269,18 +4279,22 @@
         <v>23</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5" t="b">
+        <v>5</v>
+      </c>
+      <c r="E143" s="5">
+        <v>0</v>
+      </c>
+      <c r="F143" s="5">
         <v>1</v>
+      </c>
+      <c r="G143" s="5">
+        <v>0.5</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -4288,22 +4302,18 @@
         <v>23</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E144" s="5">
-        <v>0</v>
-      </c>
-      <c r="F144" s="5">
-        <v>3</v>
-      </c>
-      <c r="G144" s="5">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -4311,22 +4321,18 @@
         <v>23</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E145" s="5">
-        <v>0</v>
-      </c>
-      <c r="F145" s="5">
-        <v>1</v>
-      </c>
-      <c r="G145" s="5">
-        <v>0.5</v>
+        <v>19</v>
+      </c>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="8" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -4334,10 +4340,10 @@
         <v>23</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>19</v>
@@ -4345,7 +4351,7 @@
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="8" t="s">
-        <v>237</v>
+        <v>81</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -4353,10 +4359,10 @@
         <v>23</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>19</v>
@@ -4364,7 +4370,7 @@
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="8" t="s">
-        <v>238</v>
+        <v>80</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -4372,10 +4378,10 @@
         <v>23</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>19</v>
@@ -4383,7 +4389,7 @@
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -4391,10 +4397,10 @@
         <v>23</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>19</v>
@@ -4402,7 +4408,7 @@
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="G149" s="8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -4413,15 +4419,19 @@
         <v>82</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="8" t="s">
-        <v>84</v>
+        <v>5</v>
+      </c>
+      <c r="E150" s="5">
+        <v>-10</v>
+      </c>
+      <c r="F150" s="5">
+        <v>10</v>
+      </c>
+      <c r="G150" s="5">
+        <v>1.2</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -4429,18 +4439,18 @@
         <v>23</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
-      <c r="G151" s="8" t="s">
-        <v>86</v>
+      <c r="G151" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -4448,22 +4458,18 @@
         <v>23</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E152" s="5">
-        <v>-10</v>
-      </c>
-      <c r="F152" s="5">
-        <v>10</v>
-      </c>
-      <c r="G152" s="5">
-        <v>1.2</v>
+        <v>63</v>
+      </c>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -4474,15 +4480,15 @@
         <v>88</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
-      <c r="G153" s="9" t="s">
-        <v>90</v>
+      <c r="G153" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -4493,15 +4499,19 @@
         <v>88</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5" t="b">
+        <v>5</v>
+      </c>
+      <c r="E154" s="5">
+        <v>0</v>
+      </c>
+      <c r="F154" s="5">
         <v>1</v>
+      </c>
+      <c r="G154" s="5">
+        <v>0.1</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -4512,15 +4522,17 @@
         <v>88</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E155" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="E155" s="5">
+        <v>0</v>
+      </c>
       <c r="F155" s="5"/>
-      <c r="G155" s="5" t="b">
-        <v>0</v>
+      <c r="G155" s="5">
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -4531,7 +4543,7 @@
         <v>88</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>5</v>
@@ -4539,11 +4551,9 @@
       <c r="E156" s="5">
         <v>0</v>
       </c>
-      <c r="F156" s="5">
-        <v>1</v>
-      </c>
+      <c r="F156" s="5"/>
       <c r="G156" s="5">
-        <v>0.1</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -4554,17 +4564,15 @@
         <v>88</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E157" s="5">
-        <v>0</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E157" s="5"/>
       <c r="F157" s="5"/>
-      <c r="G157" s="5">
-        <v>7</v>
+      <c r="G157" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -4575,17 +4583,15 @@
         <v>88</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E158" s="5">
-        <v>0</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E158" s="5"/>
       <c r="F158" s="5"/>
-      <c r="G158" s="5">
-        <v>100000</v>
+      <c r="G158" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -4596,7 +4602,7 @@
         <v>88</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>63</v>
@@ -4604,7 +4610,7 @@
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -4615,15 +4621,19 @@
         <v>88</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5" t="b">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E160" s="5">
+        <v>-10</v>
+      </c>
+      <c r="F160" s="5">
+        <v>10</v>
+      </c>
+      <c r="G160" s="5">
+        <v>-1.5</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -4634,15 +4644,19 @@
         <v>88</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="5" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E161" s="5">
+        <v>-10</v>
+      </c>
+      <c r="F161" s="5">
+        <v>10</v>
+      </c>
+      <c r="G161" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -4653,19 +4667,15 @@
         <v>88</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E162" s="5">
-        <v>-10</v>
-      </c>
-      <c r="F162" s="5">
-        <v>10</v>
-      </c>
-      <c r="G162" s="5">
-        <v>-1.5</v>
+        <v>63</v>
+      </c>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
@@ -4676,19 +4686,19 @@
         <v>88</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E163" s="5">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F163" s="5">
         <v>10</v>
       </c>
       <c r="G163" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -4699,15 +4709,19 @@
         <v>88</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
-      <c r="G164" s="5" t="b">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E164" s="5">
+        <v>0</v>
+      </c>
+      <c r="F164" s="5">
+        <v>11</v>
+      </c>
+      <c r="G164" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -4718,7 +4732,7 @@
         <v>88</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>5</v>
@@ -4727,10 +4741,10 @@
         <v>0</v>
       </c>
       <c r="F165" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G165" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -4741,7 +4755,7 @@
         <v>88</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>5</v>
@@ -4750,10 +4764,10 @@
         <v>0</v>
       </c>
       <c r="F166" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G166" s="5">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -4764,7 +4778,7 @@
         <v>88</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>5</v>
@@ -4773,10 +4787,10 @@
         <v>0</v>
       </c>
       <c r="F167" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G167" s="5">
-        <v>10</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -4787,19 +4801,15 @@
         <v>88</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E168" s="5">
-        <v>0</v>
-      </c>
-      <c r="F168" s="5">
-        <v>10</v>
-      </c>
-      <c r="G168" s="5">
-        <v>1.5</v>
+        <v>63</v>
+      </c>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -4810,19 +4820,15 @@
         <v>88</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E169" s="5">
-        <v>0</v>
-      </c>
-      <c r="F169" s="5">
-        <v>10</v>
-      </c>
-      <c r="G169" s="5">
-        <v>0.75</v>
+        <v>19</v>
+      </c>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -4833,15 +4839,15 @@
         <v>88</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
-      <c r="G170" s="5" t="b">
-        <v>0</v>
+      <c r="G170" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -4852,7 +4858,7 @@
         <v>88</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>19</v>
@@ -4860,7 +4866,7 @@
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -4871,15 +4877,15 @@
         <v>88</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
-      <c r="G172" s="5" t="s">
-        <v>114</v>
+      <c r="G172" s="5">
+        <v>255</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -4890,7 +4896,7 @@
         <v>88</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>19</v>
@@ -4898,7 +4904,7 @@
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
       <c r="G173" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -4909,15 +4915,19 @@
         <v>88</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
+      <c r="E174" s="5">
+        <v>-10</v>
+      </c>
+      <c r="F174" s="5">
+        <v>10</v>
+      </c>
       <c r="G174" s="5">
-        <v>255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -4928,15 +4938,15 @@
         <v>88</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
-      <c r="G175" s="5" t="s">
-        <v>116</v>
+      <c r="G175" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -4947,18 +4957,14 @@
         <v>88</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E176" s="5">
-        <v>-10</v>
-      </c>
-      <c r="F176" s="5">
-        <v>10</v>
-      </c>
-      <c r="G176" s="5">
+        <v>63</v>
+      </c>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4970,15 +4976,15 @@
         <v>88</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
-      <c r="G177" s="5" t="b">
-        <v>0</v>
+      <c r="G177" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
@@ -4989,53 +4995,53 @@
         <v>88</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
-      <c r="G178" s="5" t="b">
-        <v>0</v>
+      <c r="G178" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>112</v>
+      <c r="A179" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>240</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E179" s="5"/>
-      <c r="F179" s="5"/>
-      <c r="G179" s="5" t="s">
-        <v>117</v>
+        <v>5</v>
+      </c>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12">
+        <v>9.2200000000000006</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A180" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>113</v>
+      <c r="A180" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C180" s="13" t="s">
+        <v>241</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E180" s="5"/>
-      <c r="F180" s="5"/>
-      <c r="G180" s="5" t="s">
-        <v>118</v>
+        <v>5</v>
+      </c>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12">
+        <v>0.99</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
@@ -5043,10 +5049,10 @@
         <v>23</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>5</v>
@@ -5054,7 +5060,7 @@
       <c r="E181" s="12"/>
       <c r="F181" s="12"/>
       <c r="G181" s="12">
-        <v>9.2200000000000006</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
@@ -5062,10 +5068,10 @@
         <v>23</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>5</v>
@@ -5073,7 +5079,7 @@
       <c r="E182" s="12"/>
       <c r="F182" s="12"/>
       <c r="G182" s="12">
-        <v>0.99</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
@@ -5081,10 +5087,10 @@
         <v>23</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C183" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>5</v>
@@ -5092,7 +5098,7 @@
       <c r="E183" s="12"/>
       <c r="F183" s="12"/>
       <c r="G183" s="12">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
@@ -5100,10 +5106,10 @@
         <v>23</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D184" s="5" t="s">
         <v>5</v>
@@ -5111,7 +5117,7 @@
       <c r="E184" s="12"/>
       <c r="F184" s="12"/>
       <c r="G184" s="12">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
@@ -5119,10 +5125,10 @@
         <v>23</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D185" s="5" t="s">
         <v>5</v>
@@ -5130,7 +5136,7 @@
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
       <c r="G185" s="12">
-        <v>0.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
@@ -5138,10 +5144,10 @@
         <v>23</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>5</v>
@@ -5149,7 +5155,7 @@
       <c r="E186" s="12"/>
       <c r="F186" s="12"/>
       <c r="G186" s="12">
-        <v>3</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
@@ -5157,10 +5163,10 @@
         <v>23</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>5</v>
@@ -5168,7 +5174,7 @@
       <c r="E187" s="12"/>
       <c r="F187" s="12"/>
       <c r="G187" s="12">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
@@ -5176,18 +5182,18 @@
         <v>23</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E188" s="12"/>
       <c r="F188" s="12"/>
-      <c r="G188" s="12">
-        <v>2.71</v>
+      <c r="G188" s="12" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
@@ -5195,18 +5201,18 @@
         <v>23</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E189" s="12"/>
       <c r="F189" s="12"/>
-      <c r="G189" s="12">
-        <v>1</v>
+      <c r="G189" s="12" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
@@ -5214,10 +5220,10 @@
         <v>23</v>
       </c>
       <c r="B190" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C190" s="13" t="s">
         <v>242</v>
-      </c>
-      <c r="C190" s="13" t="s">
-        <v>256</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>19</v>
@@ -5225,7 +5231,7 @@
       <c r="E190" s="12"/>
       <c r="F190" s="12"/>
       <c r="G190" s="12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
@@ -5233,18 +5239,18 @@
         <v>23</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>19</v>
+        <v>254</v>
+      </c>
+      <c r="D191" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="E191" s="12"/>
       <c r="F191" s="12"/>
-      <c r="G191" s="12" t="s">
-        <v>127</v>
+      <c r="G191" s="12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
@@ -5252,10 +5258,10 @@
         <v>23</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>19</v>
@@ -5263,64 +5269,64 @@
       <c r="E192" s="12"/>
       <c r="F192" s="12"/>
       <c r="G192" s="12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" s="12" t="s">
+      <c r="A193" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="C193" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="D193" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E193" s="12"/>
-      <c r="F193" s="12"/>
-      <c r="G193" s="12" t="b">
-        <v>0</v>
+        <v>239</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B194" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="C194" s="13" t="s">
-        <v>259</v>
+      <c r="A194" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E194" s="12"/>
-      <c r="F194" s="12"/>
-      <c r="G194" s="12" t="s">
-        <v>247</v>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B195" s="12" t="s">
-        <v>242</v>
+      <c r="B195" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>260</v>
+        <v>121</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
-      <c r="G195" s="5" t="s">
-        <v>248</v>
+      <c r="G195" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
@@ -5331,7 +5337,7 @@
         <v>119</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>19</v>
@@ -5339,7 +5345,7 @@
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="9" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
@@ -5350,15 +5356,15 @@
         <v>119</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D197" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
-      <c r="G197" s="9" t="s">
-        <v>128</v>
+      <c r="G197" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
@@ -5369,15 +5375,15 @@
         <v>119</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="D198" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
-      <c r="G198" s="9" t="s">
-        <v>84</v>
+      <c r="G198" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
@@ -5388,7 +5394,7 @@
         <v>119</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D199" s="5" t="s">
         <v>19</v>
@@ -5396,7 +5402,7 @@
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
       <c r="G199" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
@@ -5407,15 +5413,15 @@
         <v>119</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
-      <c r="G200" s="5" t="s">
-        <v>130</v>
+      <c r="G200" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
@@ -5426,15 +5432,19 @@
         <v>119</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E201" s="5"/>
-      <c r="F201" s="5"/>
-      <c r="G201" s="5" t="s">
-        <v>131</v>
+        <v>5</v>
+      </c>
+      <c r="E201" s="5">
+        <v>0</v>
+      </c>
+      <c r="F201" s="5">
+        <v>10</v>
+      </c>
+      <c r="G201" s="5">
+        <v>0.4</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
@@ -5442,18 +5452,18 @@
         <v>23</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
-      <c r="G202" s="5" t="b">
-        <v>0</v>
+      <c r="G202" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
@@ -5461,22 +5471,18 @@
         <v>23</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E203" s="5">
-        <v>0</v>
-      </c>
-      <c r="F203" s="5">
-        <v>10</v>
-      </c>
-      <c r="G203" s="5">
-        <v>0.4</v>
+        <v>19</v>
+      </c>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="9" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
@@ -5487,15 +5493,15 @@
         <v>132</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
-      <c r="G204" s="9" t="s">
-        <v>134</v>
+      <c r="G204" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
@@ -5503,10 +5509,10 @@
         <v>23</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D205" s="5" t="s">
         <v>19</v>
@@ -5514,7 +5520,7 @@
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
       <c r="G205" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
@@ -5522,18 +5528,18 @@
         <v>23</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
-      <c r="G206" s="5" t="b">
-        <v>0</v>
+      <c r="G206" s="9" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
@@ -5544,7 +5550,7 @@
         <v>135</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="D207" s="5" t="s">
         <v>19</v>
@@ -5552,7 +5558,7 @@
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
       <c r="G207" s="9" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
@@ -5563,7 +5569,7 @@
         <v>135</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="D208" s="5" t="s">
         <v>19</v>
@@ -5571,7 +5577,7 @@
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
       <c r="G208" s="9" t="s">
-        <v>139</v>
+        <v>261</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -5582,7 +5588,7 @@
         <v>135</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D209" s="5" t="s">
         <v>19</v>
@@ -5590,79 +5596,79 @@
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
       <c r="G209" s="9" t="s">
-        <v>140</v>
+        <v>262</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E210" s="5"/>
-      <c r="F210" s="5"/>
-      <c r="G210" s="9" t="s">
-        <v>141</v>
+        <v>5</v>
+      </c>
+      <c r="E210" s="5">
+        <v>0</v>
+      </c>
+      <c r="F210" s="5">
+        <v>2</v>
+      </c>
+      <c r="G210" s="5">
+        <v>0.75</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
-      <c r="G211" s="9" t="s">
-        <v>142</v>
+      <c r="G211" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E212" s="5">
-        <v>0</v>
-      </c>
-      <c r="F212" s="5">
-        <v>2</v>
-      </c>
-      <c r="G212" s="5">
-        <v>0.75</v>
+        <v>63</v>
+      </c>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D213" s="5" t="s">
         <v>63</v>
@@ -5675,13 +5681,13 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>63</v>
@@ -5694,116 +5700,124 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E215" s="5"/>
-      <c r="F215" s="5"/>
-      <c r="G215" s="5" t="b">
+        <v>20</v>
+      </c>
+      <c r="E215" s="5">
+        <v>0</v>
+      </c>
+      <c r="F215" s="5">
+        <v>2</v>
+      </c>
+      <c r="G215" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E216" s="5"/>
-      <c r="F216" s="5"/>
-      <c r="G216" s="5" t="b">
+        <v>20</v>
+      </c>
+      <c r="E216" s="5">
+        <v>0</v>
+      </c>
+      <c r="F216" s="5">
+        <v>2</v>
+      </c>
+      <c r="G216" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E217" s="5">
-        <v>0</v>
-      </c>
-      <c r="F217" s="5">
-        <v>2</v>
-      </c>
-      <c r="G217" s="5">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>30</v>
+        <v>233</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E218" s="5">
         <v>0</v>
       </c>
       <c r="F218" s="5">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G218" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>212</v>
+        <v>65</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E219" s="5"/>
-      <c r="F219" s="5"/>
-      <c r="G219" s="5" t="b">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E219" s="5">
+        <v>0</v>
+      </c>
+      <c r="F219" s="5">
+        <v>10</v>
+      </c>
+      <c r="G219" s="5">
+        <v>0.75</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>212</v>
+        <v>65</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>236</v>
+        <v>32</v>
       </c>
       <c r="D220" s="5" t="s">
         <v>5</v>
@@ -5812,21 +5826,21 @@
         <v>0</v>
       </c>
       <c r="F220" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G220" s="5">
-        <v>10</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D221" s="5" t="s">
         <v>5</v>
@@ -5835,21 +5849,21 @@
         <v>0</v>
       </c>
       <c r="F221" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G221" s="5">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D222" s="5" t="s">
         <v>5</v>
@@ -5858,21 +5872,21 @@
         <v>0</v>
       </c>
       <c r="F222" s="5">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G222" s="5">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>5</v>
@@ -5881,21 +5895,21 @@
         <v>0</v>
       </c>
       <c r="F223" s="5">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G223" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D224" s="5" t="s">
         <v>5</v>
@@ -5904,21 +5918,21 @@
         <v>0</v>
       </c>
       <c r="F224" s="5">
+        <v>200</v>
+      </c>
+      <c r="G224" s="5">
         <v>50</v>
-      </c>
-      <c r="G224" s="5">
-        <v>5.5</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D225" s="5" t="s">
         <v>5</v>
@@ -5927,21 +5941,21 @@
         <v>0</v>
       </c>
       <c r="F225" s="5">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G225" s="5">
-        <v>0.1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D226" s="5" t="s">
         <v>5</v>
@@ -5950,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="F226" s="5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G226" s="5">
         <v>50</v>
@@ -5958,13 +5972,13 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D227" s="5" t="s">
         <v>5</v>
@@ -5973,21 +5987,21 @@
         <v>0</v>
       </c>
       <c r="F227" s="5">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G227" s="5">
-        <v>200</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D228" s="5" t="s">
         <v>5</v>
@@ -5999,18 +6013,18 @@
         <v>100</v>
       </c>
       <c r="G228" s="5">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D229" s="5" t="s">
         <v>5</v>
@@ -6019,21 +6033,21 @@
         <v>0</v>
       </c>
       <c r="F229" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G229" s="5">
-        <v>15</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D230" s="5" t="s">
         <v>5</v>
@@ -6042,21 +6056,21 @@
         <v>0</v>
       </c>
       <c r="F230" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G230" s="5">
-        <v>5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D231" s="5" t="s">
         <v>5</v>
@@ -6068,18 +6082,18 @@
         <v>10</v>
       </c>
       <c r="G231" s="5">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D232" s="5" t="s">
         <v>5</v>
@@ -6091,18 +6105,18 @@
         <v>10</v>
       </c>
       <c r="G232" s="5">
-        <v>0.45</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D233" s="5" t="s">
         <v>5</v>
@@ -6114,64 +6128,56 @@
         <v>10</v>
       </c>
       <c r="G233" s="5">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E234" s="5">
-        <v>0</v>
-      </c>
-      <c r="F234" s="5">
-        <v>10</v>
-      </c>
-      <c r="G234" s="5">
-        <v>0.1</v>
+        <v>63</v>
+      </c>
+      <c r="E234" s="5"/>
+      <c r="F234" s="5"/>
+      <c r="G234" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E235" s="5">
-        <v>0</v>
-      </c>
-      <c r="F235" s="5">
-        <v>10</v>
-      </c>
-      <c r="G235" s="5">
-        <v>0.1</v>
+        <v>63</v>
+      </c>
+      <c r="E235" s="5"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D236" s="5" t="s">
         <v>63</v>
@@ -6184,13 +6190,13 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D237" s="5" t="s">
         <v>63</v>
@@ -6198,18 +6204,18 @@
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
       <c r="G237" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D238" s="5" t="s">
         <v>63</v>
@@ -6222,51 +6228,59 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E239" s="5"/>
-      <c r="F239" s="5"/>
-      <c r="G239" s="5" t="b">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E239" s="5">
+        <v>0</v>
+      </c>
+      <c r="F239" s="5">
+        <v>10</v>
+      </c>
+      <c r="G239" s="5">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E240" s="5"/>
-      <c r="F240" s="5"/>
-      <c r="G240" s="5" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E240" s="5">
+        <v>0</v>
+      </c>
+      <c r="F240" s="5">
+        <v>10</v>
+      </c>
+      <c r="G240" s="5">
+        <v>4.8</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D241" s="5" t="s">
         <v>5</v>
@@ -6278,18 +6292,18 @@
         <v>10</v>
       </c>
       <c r="G241" s="5">
-        <v>2.2000000000000002</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D242" s="5" t="s">
         <v>5</v>
@@ -6301,18 +6315,18 @@
         <v>10</v>
       </c>
       <c r="G242" s="5">
-        <v>4.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D243" s="5" t="s">
         <v>5</v>
@@ -6324,18 +6338,18 @@
         <v>10</v>
       </c>
       <c r="G243" s="5">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D244" s="5" t="s">
         <v>5</v>
@@ -6347,18 +6361,18 @@
         <v>10</v>
       </c>
       <c r="G244" s="5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D245" s="5" t="s">
         <v>5</v>
@@ -6370,18 +6384,18 @@
         <v>10</v>
       </c>
       <c r="G245" s="5">
-        <v>0.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D246" s="5" t="s">
         <v>5</v>
@@ -6393,41 +6407,41 @@
         <v>10</v>
       </c>
       <c r="G246" s="5">
-        <v>1.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D247" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E247" s="5">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F247" s="5">
         <v>10</v>
       </c>
       <c r="G247" s="5">
-        <v>3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D248" s="5" t="s">
         <v>5</v>
@@ -6439,18 +6453,18 @@
         <v>10</v>
       </c>
       <c r="G248" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D249" s="5" t="s">
         <v>5</v>
@@ -6459,90 +6473,82 @@
         <v>-10</v>
       </c>
       <c r="F249" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G249" s="5">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E250" s="5">
         <v>0</v>
       </c>
       <c r="F250" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G250" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E251" s="5">
-        <v>-10</v>
-      </c>
-      <c r="F251" s="5">
-        <v>0</v>
-      </c>
-      <c r="G251" s="5">
-        <v>-3</v>
+        <v>63</v>
+      </c>
+      <c r="E251" s="5"/>
+      <c r="F251" s="5"/>
+      <c r="G251" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E252" s="5">
-        <v>0</v>
-      </c>
-      <c r="F252" s="5">
-        <v>2</v>
-      </c>
-      <c r="G252" s="5">
+        <v>63</v>
+      </c>
+      <c r="E252" s="5"/>
+      <c r="F252" s="5"/>
+      <c r="G252" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="D253" s="5" t="s">
         <v>63</v>
@@ -6555,52 +6561,60 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E254" s="5"/>
-      <c r="F254" s="5"/>
-      <c r="G254" s="5" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E254" s="5">
+        <v>0</v>
+      </c>
+      <c r="F254" s="5">
+        <v>10</v>
+      </c>
+      <c r="G254" s="5">
+        <v>0.1</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E255" s="5"/>
-      <c r="F255" s="5"/>
-      <c r="G255" s="5" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E255" s="5">
+        <v>0</v>
+      </c>
+      <c r="F255" s="5">
+        <v>10</v>
+      </c>
+      <c r="G255" s="5">
+        <v>0.1</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B256" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C256" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C256" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D256" s="5" t="s">
         <v>5</v>
       </c>
@@ -6608,44 +6622,44 @@
         <v>0</v>
       </c>
       <c r="F256" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G256" s="5">
-        <v>0.1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E257" s="5">
         <v>0</v>
       </c>
       <c r="F257" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G257" s="5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B258" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C258" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="D258" s="5" t="s">
         <v>5</v>
@@ -6657,41 +6671,41 @@
         <v>100</v>
       </c>
       <c r="G258" s="5">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E259" s="5">
         <v>0</v>
       </c>
       <c r="F259" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G259" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D260" s="5" t="s">
         <v>5</v>
@@ -6700,21 +6714,21 @@
         <v>0</v>
       </c>
       <c r="F260" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G260" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D261" s="5" t="s">
         <v>5</v>
@@ -6726,18 +6740,18 @@
         <v>10</v>
       </c>
       <c r="G261" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D262" s="5" t="s">
         <v>5</v>
@@ -6749,18 +6763,18 @@
         <v>10</v>
       </c>
       <c r="G262" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D263" s="5" t="s">
         <v>5</v>
@@ -6772,108 +6786,81 @@
         <v>10</v>
       </c>
       <c r="G263" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>211</v>
+        <v>223</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E264" s="5">
-        <v>0</v>
-      </c>
-      <c r="F264" s="5">
-        <v>10</v>
-      </c>
-      <c r="G264" s="5">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E264" s="5"/>
+      <c r="F264" s="5"/>
+      <c r="G264" s="5" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D265" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E265" s="5">
-        <v>0</v>
-      </c>
-      <c r="F265" s="5">
-        <v>10</v>
-      </c>
-      <c r="G265" s="5">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="D265" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E265" s="7"/>
+      <c r="F265" s="7"/>
+      <c r="G265" s="11" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B266" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B266" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="C266" s="4" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D266" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E266" s="7"/>
       <c r="F266" s="7"/>
-      <c r="G266" s="11" t="s">
-        <v>235</v>
+      <c r="G266" s="6" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D267" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E267" s="7"/>
-      <c r="F267" s="7"/>
-      <c r="G267" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A268" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B268" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C268" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D268" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G268" t="s">
-        <v>232</v>
+      <c r="G267" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
